--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_14_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_14_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-750640.7559643483</v>
+        <v>-752499.8112467076</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4728206.377206862</v>
+        <v>4728206.377206859</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>318.4716714268618</v>
+        <v>318.4716714268617</v>
       </c>
       <c r="C11" t="n">
-        <v>301.0107215343887</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>290.4208713840642</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>317.668199835643</v>
       </c>
       <c r="F11" t="n">
-        <v>342.6138755050927</v>
+        <v>274.7259863828395</v>
       </c>
       <c r="G11" t="n">
-        <v>348.305269075243</v>
+        <v>348.3052690752429</v>
       </c>
       <c r="H11" t="n">
-        <v>247.1997591548758</v>
+        <v>247.1997591548757</v>
       </c>
       <c r="I11" t="n">
-        <v>32.82796352929039</v>
+        <v>40.76113535209355</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.42729154253642</v>
       </c>
       <c r="T11" t="n">
         <v>146.8599114426837</v>
@@ -1427,13 +1427,13 @@
         <v>186.8646588149558</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>263.4900882335161</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>305.4689304418502</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>135.8800036009593</v>
       </c>
       <c r="H12" t="n">
-        <v>98.10098430633195</v>
+        <v>98.10098430633197</v>
       </c>
       <c r="I12" t="n">
-        <v>39.00811765986587</v>
+        <v>39.0081176598659</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.291614910404846</v>
+        <v>9.29161491040486</v>
       </c>
       <c r="S12" t="n">
         <v>144.499048576932</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>115.5698099453185</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>102.984650862009</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>4.897476982575768</v>
       </c>
       <c r="E13" t="n">
-        <v>82.17179240995037</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>81.15887778631244</v>
+        <v>81.15887778631243</v>
       </c>
       <c r="G13" t="n">
         <v>102.5018485138553</v>
       </c>
       <c r="H13" t="n">
-        <v>87.05620704710245</v>
+        <v>87.05620704710243</v>
       </c>
       <c r="I13" t="n">
         <v>54.29025295233658</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.8626105306214</v>
+        <v>57.86261053062141</v>
       </c>
       <c r="S13" t="n">
-        <v>57.39116793936511</v>
+        <v>138.3718506593841</v>
       </c>
       <c r="T13" t="n">
         <v>158.4409511393645</v>
@@ -1588,10 +1588,10 @@
         <v>187.8754730872092</v>
       </c>
       <c r="W13" t="n">
-        <v>222.2608280999722</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>161.4474851524184</v>
+        <v>161.4474851524183</v>
       </c>
       <c r="Y13" t="n">
         <v>154.322483115476</v>
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>318.4716714268618</v>
+        <v>318.4716714268617</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>301.0107215343887</v>
       </c>
       <c r="D14" t="n">
-        <v>290.4208713840642</v>
+        <v>290.4208713840641</v>
       </c>
       <c r="E14" t="n">
-        <v>317.668199835643</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>155.4193238159682</v>
+        <v>342.6138755050926</v>
       </c>
       <c r="G14" t="n">
-        <v>348.305269075243</v>
+        <v>348.3052690752429</v>
       </c>
       <c r="H14" t="n">
-        <v>247.1997591548758</v>
+        <v>247.1997591548757</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.42729154253647</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>146.8599114426837</v>
       </c>
       <c r="U14" t="n">
-        <v>186.8646588149559</v>
+        <v>186.8646588149558</v>
       </c>
       <c r="V14" t="n">
-        <v>263.4900882335162</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>284.9787984807942</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.9757684194349</v>
+        <v>65.51736488413948</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>135.8800036009593</v>
       </c>
       <c r="H15" t="n">
-        <v>98.10098430633195</v>
+        <v>98.10098430633197</v>
       </c>
       <c r="I15" t="n">
-        <v>39.00811765986587</v>
+        <v>39.0081176598659</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.291614910404832</v>
+        <v>9.29161491040486</v>
       </c>
       <c r="S15" t="n">
         <v>144.499048576932</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>115.5698099453185</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>73.85543097475718</v>
       </c>
       <c r="D16" t="n">
-        <v>57.39116793936421</v>
+        <v>84.35330278159354</v>
       </c>
       <c r="E16" t="n">
-        <v>82.17179240995043</v>
+        <v>82.17179240995036</v>
       </c>
       <c r="F16" t="n">
-        <v>81.1588777863125</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>102.5018485138553</v>
       </c>
       <c r="H16" t="n">
-        <v>87.0562070471025</v>
+        <v>87.05620704710243</v>
       </c>
       <c r="I16" t="n">
-        <v>54.29025295233664</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.86261053062146</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>138.3718506593841</v>
       </c>
       <c r="T16" t="n">
-        <v>158.4409511393646</v>
+        <v>158.4409511393645</v>
       </c>
       <c r="U16" t="n">
-        <v>221.9899339958003</v>
+        <v>221.9899339958002</v>
       </c>
       <c r="V16" t="n">
-        <v>187.8754730872093</v>
+        <v>187.8754730872092</v>
       </c>
       <c r="W16" t="n">
-        <v>222.2608280999723</v>
+        <v>222.2608280999722</v>
       </c>
       <c r="X16" t="n">
-        <v>161.4474851524184</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>154.322483115476</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>137.6950891825885</v>
+        <v>238.1073382465104</v>
       </c>
       <c r="C17" t="n">
         <v>220.6463883540374</v>
@@ -1856,7 +1856,7 @@
         <v>262.2495423247412</v>
       </c>
       <c r="G17" t="n">
-        <v>267.9409358948915</v>
+        <v>267.9409358948916</v>
       </c>
       <c r="H17" t="n">
         <v>166.8354259745244</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>2.062958362185007</v>
+        <v>2.062958362185029</v>
       </c>
       <c r="T17" t="n">
-        <v>66.49557826233233</v>
+        <v>66.49557826233234</v>
       </c>
       <c r="U17" t="n">
-        <v>106.5003256346045</v>
+        <v>6.088076570681977</v>
       </c>
       <c r="V17" t="n">
         <v>183.1257550531647</v>
@@ -1938,10 +1938,10 @@
         <v>135.8800036009593</v>
       </c>
       <c r="H18" t="n">
-        <v>98.10098430633195</v>
+        <v>98.10098430633197</v>
       </c>
       <c r="I18" t="n">
-        <v>39.00811765986587</v>
+        <v>39.0081176598659</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.291614910404832</v>
+        <v>9.29161491040486</v>
       </c>
       <c r="S18" t="n">
         <v>144.499048576932</v>
@@ -2002,10 +2002,10 @@
         <v>35.2054767649671</v>
       </c>
       <c r="C19" t="n">
-        <v>111.8487559411299</v>
+        <v>22.62031768165764</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>3.988969601242161</v>
       </c>
       <c r="E19" t="n">
         <v>1.807459229598976</v>
@@ -2017,13 +2017,13 @@
         <v>22.13751533350388</v>
       </c>
       <c r="H19" t="n">
-        <v>6.691873866751045</v>
+        <v>6.691873866751049</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>6.613065132156009</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.1247807672402</v>
+        <v>60.11365047758582</v>
       </c>
       <c r="S19" t="n">
         <v>58.00751747903271</v>
       </c>
       <c r="T19" t="n">
-        <v>78.07661795901312</v>
+        <v>78.07661795901313</v>
       </c>
       <c r="U19" t="n">
-        <v>141.6256008154488</v>
+        <v>286.252104232419</v>
       </c>
       <c r="V19" t="n">
-        <v>107.5111399068578</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>141.8964949196208</v>
@@ -2084,7 +2084,7 @@
         <v>220.6463883540374</v>
       </c>
       <c r="D20" t="n">
-        <v>109.644289139791</v>
+        <v>210.0565382037128</v>
       </c>
       <c r="E20" t="n">
         <v>237.3038666552916</v>
@@ -2093,7 +2093,7 @@
         <v>262.2495423247412</v>
       </c>
       <c r="G20" t="n">
-        <v>267.9409358948915</v>
+        <v>267.9409358948916</v>
       </c>
       <c r="H20" t="n">
         <v>166.8354259745244</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>2.062958362185007</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>66.49557826233233</v>
+        <v>66.49557826233234</v>
       </c>
       <c r="U20" t="n">
-        <v>106.5003256346045</v>
+        <v>106.5003256346044</v>
       </c>
       <c r="V20" t="n">
         <v>183.1257550531647</v>
@@ -2144,7 +2144,7 @@
         <v>204.6144653004428</v>
       </c>
       <c r="X20" t="n">
-        <v>225.1045972614988</v>
+        <v>126.755306559762</v>
       </c>
       <c r="Y20" t="n">
         <v>241.6114352390834</v>
@@ -2175,10 +2175,10 @@
         <v>135.8800036009593</v>
       </c>
       <c r="H21" t="n">
-        <v>98.10098430633195</v>
+        <v>98.10098430633197</v>
       </c>
       <c r="I21" t="n">
-        <v>39.00811765986587</v>
+        <v>39.0081176598659</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.291614910404832</v>
+        <v>9.29161491040486</v>
       </c>
       <c r="S21" t="n">
         <v>144.499048576932</v>
@@ -2248,19 +2248,19 @@
         <v>1.807459229598976</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0.7945446059610504</v>
       </c>
       <c r="G22" t="n">
         <v>22.13751533350388</v>
       </c>
       <c r="H22" t="n">
-        <v>6.691873866751045</v>
+        <v>6.691873866751049</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>6.613065132156009</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2290,22 +2290,22 @@
         <v>58.00751747903271</v>
       </c>
       <c r="T22" t="n">
-        <v>78.07661795901312</v>
+        <v>78.07661795901313</v>
       </c>
       <c r="U22" t="n">
-        <v>141.6256008154488</v>
+        <v>286.252104232419</v>
       </c>
       <c r="V22" t="n">
-        <v>174.2378555166</v>
+        <v>107.5111399068578</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>141.8964949196208</v>
       </c>
       <c r="X22" t="n">
-        <v>81.08315197206696</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.9581499351246</v>
+        <v>134.0718004127103</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>262.2495423247412</v>
       </c>
       <c r="G23" t="n">
-        <v>267.9409358948915</v>
+        <v>267.9409358948916</v>
       </c>
       <c r="H23" t="n">
         <v>166.8354259745244</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>2.062958362185007</v>
+        <v>2.062958362185029</v>
       </c>
       <c r="T23" t="n">
-        <v>66.49557826233233</v>
+        <v>66.49557826233234</v>
       </c>
       <c r="U23" t="n">
         <v>106.5003256346045</v>
@@ -2412,10 +2412,10 @@
         <v>135.8800036009593</v>
       </c>
       <c r="H24" t="n">
-        <v>98.10098430633195</v>
+        <v>98.10098430633197</v>
       </c>
       <c r="I24" t="n">
-        <v>39.00811765986587</v>
+        <v>39.0081176598659</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.291614910404832</v>
+        <v>9.29161491040486</v>
       </c>
       <c r="S24" t="n">
         <v>144.499048576932</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>35.2054767649671</v>
       </c>
       <c r="C25" t="n">
         <v>22.62031768165764</v>
@@ -2491,10 +2491,10 @@
         <v>22.13751533350388</v>
       </c>
       <c r="H25" t="n">
-        <v>6.691873866751045</v>
+        <v>6.691873866751049</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>118.5524231889554</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>58.00751747903271</v>
+        <v>150.8083133167893</v>
       </c>
       <c r="T25" t="n">
         <v>222.7031213759833</v>
@@ -2542,7 +2542,7 @@
         <v>81.08315197206696</v>
       </c>
       <c r="Y25" t="n">
-        <v>140.6848655448668</v>
+        <v>73.9581499351246</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>302.3695084831292</v>
       </c>
       <c r="C26" t="n">
-        <v>284.9085585906561</v>
+        <v>284.9085585906562</v>
       </c>
       <c r="D26" t="n">
         <v>274.3187084403315</v>
@@ -2567,13 +2567,13 @@
         <v>326.51171256136</v>
       </c>
       <c r="G26" t="n">
-        <v>332.2031061315103</v>
+        <v>332.2031061315104</v>
       </c>
       <c r="H26" t="n">
         <v>231.0975962111432</v>
       </c>
       <c r="I26" t="n">
-        <v>24.65897240836092</v>
+        <v>24.65897240836098</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.32512859880381</v>
+        <v>66.32512859880383</v>
       </c>
       <c r="T26" t="n">
         <v>130.7577484989511</v>
       </c>
       <c r="U26" t="n">
-        <v>170.7624958712232</v>
+        <v>170.7624958712233</v>
       </c>
       <c r="V26" t="n">
         <v>247.3879252897835</v>
@@ -2649,10 +2649,10 @@
         <v>135.8800036009593</v>
       </c>
       <c r="H27" t="n">
-        <v>98.10098430633195</v>
+        <v>98.10098430633197</v>
       </c>
       <c r="I27" t="n">
-        <v>39.00811765986587</v>
+        <v>39.0081176598659</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.291614910404832</v>
+        <v>9.29161491040486</v>
       </c>
       <c r="S27" t="n">
         <v>144.499048576932</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.46764700158589</v>
+        <v>99.4676470015859</v>
       </c>
       <c r="C28" t="n">
-        <v>86.88248791827642</v>
+        <v>86.88248791827644</v>
       </c>
       <c r="D28" t="n">
-        <v>68.25113983786095</v>
+        <v>68.25113983786096</v>
       </c>
       <c r="E28" t="n">
-        <v>66.06962946621776</v>
+        <v>66.06962946621778</v>
       </c>
       <c r="F28" t="n">
-        <v>65.05671484257984</v>
+        <v>65.05671484257985</v>
       </c>
       <c r="G28" t="n">
-        <v>86.39968557012268</v>
+        <v>86.3996855701227</v>
       </c>
       <c r="H28" t="n">
-        <v>70.95404410336982</v>
+        <v>70.95404410336985</v>
       </c>
       <c r="I28" t="n">
-        <v>38.18809000860397</v>
+        <v>38.188090008604</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76044758688879</v>
+        <v>41.76044758688883</v>
       </c>
       <c r="S28" t="n">
         <v>122.2696877156515</v>
@@ -2776,7 +2776,7 @@
         <v>206.1586651562396</v>
       </c>
       <c r="X28" t="n">
-        <v>145.3453222086857</v>
+        <v>145.3453222086858</v>
       </c>
       <c r="Y28" t="n">
         <v>138.2203201717434</v>
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.3695084831291</v>
+        <v>302.3695084831292</v>
       </c>
       <c r="C29" t="n">
-        <v>284.9085585906561</v>
+        <v>284.9085585906562</v>
       </c>
       <c r="D29" t="n">
         <v>274.3187084403315</v>
       </c>
       <c r="E29" t="n">
-        <v>301.5660368919103</v>
+        <v>301.5660368919104</v>
       </c>
       <c r="F29" t="n">
         <v>326.51171256136</v>
@@ -2807,10 +2807,10 @@
         <v>332.2031061315103</v>
       </c>
       <c r="H29" t="n">
-        <v>231.0975962111431</v>
+        <v>231.0975962111432</v>
       </c>
       <c r="I29" t="n">
-        <v>24.65897240836087</v>
+        <v>24.65897240836095</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.32512859880376</v>
+        <v>66.32512859880381</v>
       </c>
       <c r="T29" t="n">
         <v>130.7577484989511</v>
       </c>
       <c r="U29" t="n">
-        <v>170.7624958712232</v>
+        <v>170.7624958712233</v>
       </c>
       <c r="V29" t="n">
-        <v>247.3879252897834</v>
+        <v>247.3879252897835</v>
       </c>
       <c r="W29" t="n">
-        <v>268.8766355370615</v>
+        <v>268.8766355370616</v>
       </c>
       <c r="X29" t="n">
         <v>289.3667674981176</v>
       </c>
       <c r="Y29" t="n">
-        <v>305.8736054757021</v>
+        <v>305.8736054757022</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>135.8800036009593</v>
       </c>
       <c r="H30" t="n">
-        <v>98.10098430633195</v>
+        <v>98.10098430633197</v>
       </c>
       <c r="I30" t="n">
-        <v>39.00811765986587</v>
+        <v>39.00811765986588</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.291614910404832</v>
+        <v>9.291614910404846</v>
       </c>
       <c r="S30" t="n">
         <v>144.499048576932</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.46764700158738</v>
+        <v>99.4676470015859</v>
       </c>
       <c r="C31" t="n">
-        <v>86.88248791827637</v>
+        <v>86.88248791827644</v>
       </c>
       <c r="D31" t="n">
-        <v>68.25113983786089</v>
+        <v>68.25113983786096</v>
       </c>
       <c r="E31" t="n">
-        <v>66.06962946621771</v>
+        <v>66.06962946621778</v>
       </c>
       <c r="F31" t="n">
-        <v>65.05671484257978</v>
+        <v>65.05671484257985</v>
       </c>
       <c r="G31" t="n">
-        <v>86.39968557012263</v>
+        <v>86.3996855701227</v>
       </c>
       <c r="H31" t="n">
-        <v>70.95404410336977</v>
+        <v>70.95404410336985</v>
       </c>
       <c r="I31" t="n">
-        <v>38.18809000860391</v>
+        <v>38.18809000860399</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76044758688874</v>
+        <v>41.76044758688882</v>
       </c>
       <c r="S31" t="n">
-        <v>122.2696877156514</v>
+        <v>122.2696877156515</v>
       </c>
       <c r="T31" t="n">
-        <v>142.3387881956318</v>
+        <v>142.3387881956319</v>
       </c>
       <c r="U31" t="n">
-        <v>205.8877710520675</v>
+        <v>205.8877710520676</v>
       </c>
       <c r="V31" t="n">
-        <v>171.7733101434765</v>
+        <v>171.7733101434766</v>
       </c>
       <c r="W31" t="n">
-        <v>206.1586651562395</v>
+        <v>206.1586651562396</v>
       </c>
       <c r="X31" t="n">
-        <v>145.3453222086857</v>
+        <v>145.3453222086858</v>
       </c>
       <c r="Y31" t="n">
-        <v>138.2203201717433</v>
+        <v>138.2203201717434</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>231.0975962111432</v>
       </c>
       <c r="I32" t="n">
-        <v>24.65897240836094</v>
+        <v>24.65897240836095</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3123,10 +3123,10 @@
         <v>135.8800036009593</v>
       </c>
       <c r="H33" t="n">
-        <v>98.10098430633195</v>
+        <v>98.10098430633197</v>
       </c>
       <c r="I33" t="n">
-        <v>39.00811765986587</v>
+        <v>39.00811765986588</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.291614910404832</v>
+        <v>9.291614910404846</v>
       </c>
       <c r="S33" t="n">
         <v>144.499048576932</v>
@@ -3199,7 +3199,7 @@
         <v>65.05671484257985</v>
       </c>
       <c r="G34" t="n">
-        <v>86.39968557012268</v>
+        <v>86.3996855701227</v>
       </c>
       <c r="H34" t="n">
         <v>70.95404410336985</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76044758688881</v>
+        <v>41.76044758688882</v>
       </c>
       <c r="S34" t="n">
         <v>122.2696877156515</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.32512859880381</v>
+        <v>66.32512859880379</v>
       </c>
       <c r="T35" t="n">
         <v>130.7577484989511</v>
@@ -3360,10 +3360,10 @@
         <v>135.8800036009593</v>
       </c>
       <c r="H36" t="n">
-        <v>98.10098430633195</v>
+        <v>98.10098430633197</v>
       </c>
       <c r="I36" t="n">
-        <v>39.00811765986587</v>
+        <v>39.00811765986588</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.291614910404832</v>
+        <v>9.291614910404846</v>
       </c>
       <c r="S36" t="n">
         <v>144.499048576932</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>99.46764700158589</v>
+        <v>99.46764700158587</v>
       </c>
       <c r="C37" t="n">
-        <v>86.88248791827642</v>
+        <v>86.88248791827641</v>
       </c>
       <c r="D37" t="n">
-        <v>68.25113983786095</v>
+        <v>68.25113983786093</v>
       </c>
       <c r="E37" t="n">
-        <v>66.06962946621776</v>
+        <v>66.06962946621775</v>
       </c>
       <c r="F37" t="n">
-        <v>65.05671484257984</v>
+        <v>65.05671484257982</v>
       </c>
       <c r="G37" t="n">
-        <v>86.39968557012267</v>
+        <v>86.39968557012266</v>
       </c>
       <c r="H37" t="n">
         <v>70.95404410336982</v>
       </c>
       <c r="I37" t="n">
-        <v>38.18809000860397</v>
+        <v>38.18809000860396</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.32512859880381</v>
+        <v>66.32512859880379</v>
       </c>
       <c r="T38" t="n">
         <v>130.7577484989511</v>
@@ -3597,10 +3597,10 @@
         <v>135.8800036009593</v>
       </c>
       <c r="H39" t="n">
-        <v>98.10098430633195</v>
+        <v>98.10098430633197</v>
       </c>
       <c r="I39" t="n">
-        <v>39.00811765986587</v>
+        <v>39.00811765986588</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.291614910404832</v>
+        <v>9.291614910404846</v>
       </c>
       <c r="S39" t="n">
         <v>144.499048576932</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.46764700158589</v>
+        <v>99.46764700158587</v>
       </c>
       <c r="C40" t="n">
-        <v>86.88248791827642</v>
+        <v>86.88248791827641</v>
       </c>
       <c r="D40" t="n">
-        <v>68.25113983786095</v>
+        <v>68.25113983786093</v>
       </c>
       <c r="E40" t="n">
-        <v>66.06962946621776</v>
+        <v>66.06962946621775</v>
       </c>
       <c r="F40" t="n">
-        <v>65.05671484257984</v>
+        <v>65.05671484257982</v>
       </c>
       <c r="G40" t="n">
-        <v>86.39968557012268</v>
+        <v>86.39968557012266</v>
       </c>
       <c r="H40" t="n">
         <v>70.95404410336982</v>
       </c>
       <c r="I40" t="n">
-        <v>38.18809000860397</v>
+        <v>38.18809000860396</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>302.3695084831292</v>
       </c>
       <c r="C41" t="n">
-        <v>284.9085585906562</v>
+        <v>284.9085585906561</v>
       </c>
       <c r="D41" t="n">
         <v>274.3187084403315</v>
@@ -3752,13 +3752,13 @@
         <v>326.51171256136</v>
       </c>
       <c r="G41" t="n">
-        <v>332.2031061315104</v>
+        <v>332.2031061315103</v>
       </c>
       <c r="H41" t="n">
         <v>231.0975962111432</v>
       </c>
       <c r="I41" t="n">
-        <v>24.65897240836094</v>
+        <v>24.65897240836092</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.32512859880381</v>
+        <v>66.32512859880379</v>
       </c>
       <c r="T41" t="n">
         <v>130.7577484989511</v>
       </c>
       <c r="U41" t="n">
-        <v>170.7624958712233</v>
+        <v>170.7624958712232</v>
       </c>
       <c r="V41" t="n">
         <v>247.3879252897835</v>
@@ -3834,10 +3834,10 @@
         <v>135.8800036009593</v>
       </c>
       <c r="H42" t="n">
-        <v>98.10098430633195</v>
+        <v>98.10098430633197</v>
       </c>
       <c r="I42" t="n">
-        <v>39.00811765986587</v>
+        <v>39.00811765986588</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.291614910404832</v>
+        <v>9.291614910404846</v>
       </c>
       <c r="S42" t="n">
         <v>144.499048576932</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>99.4676470015859</v>
+        <v>99.46764700158587</v>
       </c>
       <c r="C43" t="n">
-        <v>86.88248791827644</v>
+        <v>86.88248791827641</v>
       </c>
       <c r="D43" t="n">
-        <v>68.25113983786096</v>
+        <v>68.25113983786093</v>
       </c>
       <c r="E43" t="n">
-        <v>66.06962946621778</v>
+        <v>66.06962946621775</v>
       </c>
       <c r="F43" t="n">
-        <v>65.05671484257985</v>
+        <v>65.05671484257982</v>
       </c>
       <c r="G43" t="n">
-        <v>86.3996855701227</v>
+        <v>86.39968557012266</v>
       </c>
       <c r="H43" t="n">
-        <v>70.95404410336985</v>
+        <v>70.95404410336982</v>
       </c>
       <c r="I43" t="n">
-        <v>38.18809000860398</v>
+        <v>38.18809000860396</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.7604475868888</v>
+        <v>41.76044758688879</v>
       </c>
       <c r="S43" t="n">
         <v>122.2696877156515</v>
@@ -3961,7 +3961,7 @@
         <v>206.1586651562396</v>
       </c>
       <c r="X43" t="n">
-        <v>145.3453222086858</v>
+        <v>145.3453222086857</v>
       </c>
       <c r="Y43" t="n">
         <v>138.2203201717434</v>
@@ -3995,7 +3995,7 @@
         <v>231.0975962111432</v>
       </c>
       <c r="I44" t="n">
-        <v>24.65897240836088</v>
+        <v>24.65897240836092</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.32512859880376</v>
+        <v>66.32512859880379</v>
       </c>
       <c r="T44" t="n">
         <v>130.7577484989511</v>
@@ -4043,7 +4043,7 @@
         <v>289.3667674981176</v>
       </c>
       <c r="Y44" t="n">
-        <v>305.8736054757021</v>
+        <v>305.8736054757022</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>135.8800036009593</v>
       </c>
       <c r="H45" t="n">
-        <v>98.10098430633195</v>
+        <v>98.10098430633197</v>
       </c>
       <c r="I45" t="n">
-        <v>39.00811765986587</v>
+        <v>39.00811765986588</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.291614910404832</v>
+        <v>9.291614910404846</v>
       </c>
       <c r="S45" t="n">
         <v>144.499048576932</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>99.46764700158585</v>
+        <v>99.46764700158587</v>
       </c>
       <c r="C46" t="n">
-        <v>86.88248791827638</v>
+        <v>86.88248791827641</v>
       </c>
       <c r="D46" t="n">
-        <v>68.2511398378609</v>
+        <v>68.25113983786093</v>
       </c>
       <c r="E46" t="n">
-        <v>66.06962946621772</v>
+        <v>66.06962946621775</v>
       </c>
       <c r="F46" t="n">
-        <v>65.05671484257979</v>
+        <v>65.05671484257982</v>
       </c>
       <c r="G46" t="n">
-        <v>86.39968557012263</v>
+        <v>86.39968557012266</v>
       </c>
       <c r="H46" t="n">
-        <v>70.9540441033698</v>
+        <v>70.95404410336982</v>
       </c>
       <c r="I46" t="n">
-        <v>38.18809000860393</v>
+        <v>38.18809000860396</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.76044758688875</v>
+        <v>41.76044758688879</v>
       </c>
       <c r="S46" t="n">
         <v>122.2696877156515</v>
@@ -4189,7 +4189,7 @@
         <v>142.3387881956319</v>
       </c>
       <c r="U46" t="n">
-        <v>205.8877710520675</v>
+        <v>205.8877710520676</v>
       </c>
       <c r="V46" t="n">
         <v>171.7733101434766</v>
@@ -4201,7 +4201,7 @@
         <v>145.3453222086857</v>
       </c>
       <c r="Y46" t="n">
-        <v>138.2203201717433</v>
+        <v>138.2203201717434</v>
       </c>
     </row>
   </sheetData>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1951.237461195926</v>
+        <v>1293.271491278853</v>
       </c>
       <c r="C11" t="n">
-        <v>1647.186227322807</v>
+        <v>1293.271491278853</v>
       </c>
       <c r="D11" t="n">
-        <v>1353.831811783348</v>
+        <v>1293.271491278853</v>
       </c>
       <c r="E11" t="n">
-        <v>1032.954842252395</v>
+        <v>972.3945217479004</v>
       </c>
       <c r="F11" t="n">
-        <v>686.8802205300794</v>
+        <v>694.8935254015976</v>
       </c>
       <c r="G11" t="n">
-        <v>335.0567164136724</v>
+        <v>343.0700212851906</v>
       </c>
       <c r="H11" t="n">
-        <v>85.35998999460583</v>
+        <v>93.37329486612417</v>
       </c>
       <c r="I11" t="n">
         <v>52.20043087411048</v>
@@ -5042,22 +5042,22 @@
         <v>270.2041001343099</v>
       </c>
       <c r="K11" t="n">
-        <v>717.6798929816109</v>
+        <v>641.1117230780809</v>
       </c>
       <c r="L11" t="n">
-        <v>1094.709921887336</v>
+        <v>835.0370377587128</v>
       </c>
       <c r="M11" t="n">
-        <v>1342.158637321492</v>
+        <v>1481.01736982583</v>
       </c>
       <c r="N11" t="n">
-        <v>1598.225140049873</v>
+        <v>2126.997701892947</v>
       </c>
       <c r="O11" t="n">
-        <v>1826.686216137698</v>
+        <v>2355.458777980772</v>
       </c>
       <c r="P11" t="n">
-        <v>2305.752179175668</v>
+        <v>2515.944019928974</v>
       </c>
       <c r="Q11" t="n">
         <v>2588.28900646351</v>
@@ -5066,25 +5066,25 @@
         <v>2610.021543705524</v>
       </c>
       <c r="S11" t="n">
-        <v>2610.021543705524</v>
+        <v>2526.761653258518</v>
       </c>
       <c r="T11" t="n">
-        <v>2461.678198813924</v>
+        <v>2378.418308366918</v>
       </c>
       <c r="U11" t="n">
-        <v>2272.926018192757</v>
+        <v>2189.66612774575</v>
       </c>
       <c r="V11" t="n">
-        <v>2272.926018192757</v>
+        <v>1923.514523469471</v>
       </c>
       <c r="W11" t="n">
-        <v>2272.926018192757</v>
+        <v>1923.514523469471</v>
       </c>
       <c r="X11" t="n">
-        <v>2272.926018192757</v>
+        <v>1614.960048275683</v>
       </c>
       <c r="Y11" t="n">
-        <v>2272.926018192757</v>
+        <v>1614.960048275683</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>957.1064540750159</v>
+        <v>957.1064540750158</v>
       </c>
       <c r="C12" t="n">
-        <v>782.6534247938889</v>
+        <v>782.6534247938888</v>
       </c>
       <c r="D12" t="n">
         <v>633.7190151326377</v>
       </c>
       <c r="E12" t="n">
-        <v>474.4815601271822</v>
+        <v>474.4815601271821</v>
       </c>
       <c r="F12" t="n">
         <v>327.9470021540671</v>
       </c>
       <c r="G12" t="n">
-        <v>190.6944732642093</v>
+        <v>190.6944732642096</v>
       </c>
       <c r="H12" t="n">
-        <v>91.60256992448005</v>
+        <v>91.60256992448006</v>
       </c>
       <c r="I12" t="n">
         <v>52.20043087411048</v>
       </c>
       <c r="J12" t="n">
-        <v>63.51841814083016</v>
+        <v>63.51841814083014</v>
       </c>
       <c r="K12" t="n">
-        <v>285.129863392082</v>
+        <v>161.0174858070674</v>
       </c>
       <c r="L12" t="n">
-        <v>829.6838750071913</v>
+        <v>705.5714974221764</v>
       </c>
       <c r="M12" t="n">
-        <v>1056.083930136449</v>
+        <v>1351.551829489294</v>
       </c>
       <c r="N12" t="n">
-        <v>1302.884765966336</v>
+        <v>1598.352665319181</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.363215178962</v>
+        <v>2191.831114531807</v>
       </c>
       <c r="P12" t="n">
-        <v>2355.67892497901</v>
+        <v>2563.655439837501</v>
       </c>
       <c r="Q12" t="n">
         <v>2610.021543705524</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>463.4923285605315</v>
+        <v>489.4623643530917</v>
       </c>
       <c r="C13" t="n">
-        <v>463.4923285605315</v>
+        <v>385.4374644924766</v>
       </c>
       <c r="D13" t="n">
-        <v>463.4923285605315</v>
+        <v>380.4905180454303</v>
       </c>
       <c r="E13" t="n">
-        <v>380.4905180454305</v>
+        <v>380.4905180454303</v>
       </c>
       <c r="F13" t="n">
-        <v>298.5118536148118</v>
+        <v>298.5118536148117</v>
       </c>
       <c r="G13" t="n">
-        <v>194.9746328937459</v>
+        <v>194.9746328937458</v>
       </c>
       <c r="H13" t="n">
         <v>107.039070219905</v>
@@ -5197,22 +5197,22 @@
         <v>52.20043087411048</v>
       </c>
       <c r="J13" t="n">
-        <v>109.2730449275286</v>
+        <v>109.2730449275287</v>
       </c>
       <c r="K13" t="n">
-        <v>291.970805684555</v>
+        <v>291.9708056845548</v>
       </c>
       <c r="L13" t="n">
-        <v>563.4959032733536</v>
+        <v>563.4959032733534</v>
       </c>
       <c r="M13" t="n">
-        <v>856.7118258711466</v>
+        <v>856.7118258711464</v>
       </c>
       <c r="N13" t="n">
         <v>1149.90307628869</v>
       </c>
       <c r="O13" t="n">
-        <v>1409.552953254355</v>
+        <v>1409.552953254354</v>
       </c>
       <c r="P13" t="n">
         <v>1617.389630818505</v>
@@ -5224,25 +5224,25 @@
         <v>1638.97548263084</v>
       </c>
       <c r="S13" t="n">
-        <v>1581.004605924411</v>
+        <v>1499.20593651025</v>
       </c>
       <c r="T13" t="n">
-        <v>1420.963241137174</v>
+        <v>1339.164571723013</v>
       </c>
       <c r="U13" t="n">
-        <v>1196.73098457576</v>
+        <v>1114.932315161599</v>
       </c>
       <c r="V13" t="n">
-        <v>1006.957779437164</v>
+        <v>925.1591100230038</v>
       </c>
       <c r="W13" t="n">
-        <v>782.4518924674956</v>
+        <v>925.1591100230038</v>
       </c>
       <c r="X13" t="n">
-        <v>619.3736246367699</v>
+        <v>762.0808421922782</v>
       </c>
       <c r="Y13" t="n">
-        <v>463.4923285605315</v>
+        <v>606.1995461160398</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1424.941262455721</v>
+        <v>1597.200932544479</v>
       </c>
       <c r="C14" t="n">
-        <v>1424.941262455721</v>
+        <v>1293.149698671359</v>
       </c>
       <c r="D14" t="n">
-        <v>1131.586846916262</v>
+        <v>999.7952831318997</v>
       </c>
       <c r="E14" t="n">
-        <v>810.7098773853095</v>
+        <v>999.7952831318997</v>
       </c>
       <c r="F14" t="n">
         <v>653.720661409584</v>
@@ -5276,52 +5276,52 @@
         <v>52.20043087411048</v>
       </c>
       <c r="J14" t="n">
-        <v>217.6917048284784</v>
+        <v>270.2041001343099</v>
       </c>
       <c r="K14" t="n">
-        <v>344.2635392303263</v>
+        <v>717.6798929816108</v>
       </c>
       <c r="L14" t="n">
-        <v>538.1888539109584</v>
+        <v>911.6052076622427</v>
       </c>
       <c r="M14" t="n">
-        <v>1184.169185978076</v>
+        <v>1159.053923096399</v>
       </c>
       <c r="N14" t="n">
-        <v>1830.149518045193</v>
+        <v>1415.120425824779</v>
       </c>
       <c r="O14" t="n">
-        <v>2058.610594133018</v>
+        <v>1826.686216137698</v>
       </c>
       <c r="P14" t="n">
-        <v>2537.676557170988</v>
+        <v>2305.752179175668</v>
       </c>
       <c r="Q14" t="n">
-        <v>2610.021543705524</v>
+        <v>2588.28900646351</v>
       </c>
       <c r="R14" t="n">
         <v>2610.021543705524</v>
       </c>
       <c r="S14" t="n">
-        <v>2526.761653258518</v>
+        <v>2610.021543705524</v>
       </c>
       <c r="T14" t="n">
-        <v>2526.761653258518</v>
+        <v>2461.678198813924</v>
       </c>
       <c r="U14" t="n">
-        <v>2338.00947263735</v>
+        <v>2272.926018192757</v>
       </c>
       <c r="V14" t="n">
-        <v>2071.857868361071</v>
+        <v>2272.926018192757</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.857868361071</v>
+        <v>1985.068645989934</v>
       </c>
       <c r="X14" t="n">
-        <v>2071.857868361071</v>
+        <v>1985.068645989934</v>
       </c>
       <c r="Y14" t="n">
-        <v>1746.629819452551</v>
+        <v>1918.889489541309</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>190.6944732642096</v>
       </c>
       <c r="H15" t="n">
-        <v>91.60256992448005</v>
+        <v>91.60256992448006</v>
       </c>
       <c r="I15" t="n">
         <v>52.20043087411048</v>
       </c>
       <c r="J15" t="n">
-        <v>63.51841814083016</v>
+        <v>188.3485431278349</v>
       </c>
       <c r="K15" t="n">
-        <v>422.8380704495203</v>
+        <v>547.6681954365249</v>
       </c>
       <c r="L15" t="n">
-        <v>967.3920820646296</v>
+        <v>725.0902652012095</v>
       </c>
       <c r="M15" t="n">
-        <v>1193.792137193887</v>
+        <v>1362.106270936719</v>
       </c>
       <c r="N15" t="n">
-        <v>1440.592973023774</v>
+        <v>2008.086603003836</v>
       </c>
       <c r="O15" t="n">
-        <v>2034.0714222364</v>
+        <v>2211.6413561325</v>
       </c>
       <c r="P15" t="n">
-        <v>2493.387132036448</v>
+        <v>2355.67892497901</v>
       </c>
       <c r="Q15" t="n">
         <v>2610.021543705524</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>521.4632052669605</v>
+        <v>486.4818265582103</v>
       </c>
       <c r="C16" t="n">
-        <v>521.4632052669605</v>
+        <v>411.8803811291626</v>
       </c>
       <c r="D16" t="n">
-        <v>463.4923285605322</v>
+        <v>326.6750247841186</v>
       </c>
       <c r="E16" t="n">
-        <v>380.4905180454307</v>
+        <v>243.6732142690171</v>
       </c>
       <c r="F16" t="n">
-        <v>298.511853614812</v>
+        <v>243.6732142690171</v>
       </c>
       <c r="G16" t="n">
-        <v>194.974632893746</v>
+        <v>140.1359935479512</v>
       </c>
       <c r="H16" t="n">
-        <v>107.0390702199051</v>
+        <v>52.20043087411048</v>
       </c>
       <c r="I16" t="n">
         <v>52.20043087411048</v>
       </c>
       <c r="J16" t="n">
-        <v>109.2730449275286</v>
+        <v>109.2730449275287</v>
       </c>
       <c r="K16" t="n">
-        <v>291.9708056845549</v>
+        <v>291.970805684555</v>
       </c>
       <c r="L16" t="n">
-        <v>563.4959032733534</v>
+        <v>563.4959032733533</v>
       </c>
       <c r="M16" t="n">
         <v>856.7118258711464</v>
@@ -5449,7 +5449,7 @@
         <v>1149.90307628869</v>
       </c>
       <c r="O16" t="n">
-        <v>1409.552953254355</v>
+        <v>1409.552953254354</v>
       </c>
       <c r="P16" t="n">
         <v>1617.389630818505</v>
@@ -5458,28 +5458,28 @@
         <v>1697.422563974902</v>
       </c>
       <c r="R16" t="n">
-        <v>1638.97548263084</v>
+        <v>1697.422563974902</v>
       </c>
       <c r="S16" t="n">
-        <v>1638.97548263084</v>
+        <v>1557.653017854312</v>
       </c>
       <c r="T16" t="n">
-        <v>1478.934117843603</v>
+        <v>1397.611653067075</v>
       </c>
       <c r="U16" t="n">
-        <v>1254.701861282189</v>
+        <v>1173.379396505661</v>
       </c>
       <c r="V16" t="n">
-        <v>1064.928656143594</v>
+        <v>983.6061913670655</v>
       </c>
       <c r="W16" t="n">
-        <v>840.4227691739247</v>
+        <v>759.1003043973967</v>
       </c>
       <c r="X16" t="n">
-        <v>677.3445013431989</v>
+        <v>759.1003043973967</v>
       </c>
       <c r="Y16" t="n">
-        <v>521.4632052669605</v>
+        <v>603.2190083211583</v>
       </c>
     </row>
     <row r="17">
@@ -5495,70 +5495,70 @@
         <v>1208.146197594476</v>
       </c>
       <c r="D17" t="n">
-        <v>995.9678761765841</v>
+        <v>995.9678761765845</v>
       </c>
       <c r="E17" t="n">
-        <v>756.2670007671985</v>
+        <v>756.2670007671991</v>
       </c>
       <c r="F17" t="n">
-        <v>491.3684731664497</v>
+        <v>491.3684731664503</v>
       </c>
       <c r="G17" t="n">
-        <v>220.7210631716099</v>
+        <v>220.7210631716098</v>
       </c>
       <c r="H17" t="n">
-        <v>52.20043087411047</v>
+        <v>52.20043087411048</v>
       </c>
       <c r="I17" t="n">
-        <v>52.20043087411047</v>
+        <v>52.20043087411048</v>
       </c>
       <c r="J17" t="n">
-        <v>102.7984511139569</v>
+        <v>270.2041001343099</v>
       </c>
       <c r="K17" t="n">
-        <v>550.274243961258</v>
+        <v>717.6798929816108</v>
       </c>
       <c r="L17" t="n">
-        <v>744.19955864189</v>
+        <v>1094.709921887337</v>
       </c>
       <c r="M17" t="n">
-        <v>1390.179890709007</v>
+        <v>1342.158637321493</v>
       </c>
       <c r="N17" t="n">
-        <v>1646.246393437388</v>
+        <v>1598.225140049873</v>
       </c>
       <c r="O17" t="n">
-        <v>1874.707469525213</v>
+        <v>1826.686216137698</v>
       </c>
       <c r="P17" t="n">
-        <v>2353.773432563183</v>
+        <v>2305.752179175668</v>
       </c>
       <c r="Q17" t="n">
-        <v>2610.021543705524</v>
+        <v>2588.28900646351</v>
       </c>
       <c r="R17" t="n">
         <v>2610.021543705524</v>
       </c>
       <c r="S17" t="n">
-        <v>2607.937747380084</v>
+        <v>2607.937747380085</v>
       </c>
       <c r="T17" t="n">
-        <v>2540.770496610051</v>
+        <v>2540.770496610052</v>
       </c>
       <c r="U17" t="n">
-        <v>2433.194410110451</v>
+        <v>2534.620924316434</v>
       </c>
       <c r="V17" t="n">
-        <v>2248.218899955739</v>
+        <v>2349.645414161721</v>
       </c>
       <c r="W17" t="n">
-        <v>2041.537621874484</v>
+        <v>2142.964136080466</v>
       </c>
       <c r="X17" t="n">
-        <v>1814.159240802263</v>
+        <v>1915.585755008245</v>
       </c>
       <c r="Y17" t="n">
-        <v>1570.10728601531</v>
+        <v>1671.533800221292</v>
       </c>
     </row>
     <row r="18">
@@ -5568,43 +5568,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>957.1064540750159</v>
+        <v>957.1064540750158</v>
       </c>
       <c r="C18" t="n">
-        <v>782.6534247938889</v>
+        <v>782.6534247938888</v>
       </c>
       <c r="D18" t="n">
         <v>633.7190151326377</v>
       </c>
       <c r="E18" t="n">
-        <v>474.4815601271822</v>
+        <v>474.4815601271821</v>
       </c>
       <c r="F18" t="n">
         <v>327.9470021540671</v>
       </c>
       <c r="G18" t="n">
-        <v>190.6944732642093</v>
+        <v>190.6944732642096</v>
       </c>
       <c r="H18" t="n">
-        <v>91.60256992448004</v>
+        <v>91.60256992448006</v>
       </c>
       <c r="I18" t="n">
-        <v>52.20043087411047</v>
+        <v>52.20043087411048</v>
       </c>
       <c r="J18" t="n">
         <v>188.3485431278349</v>
       </c>
       <c r="K18" t="n">
-        <v>547.668195436525</v>
+        <v>285.8476107940722</v>
       </c>
       <c r="L18" t="n">
-        <v>1092.222207051634</v>
+        <v>463.2696805587567</v>
       </c>
       <c r="M18" t="n">
-        <v>1446.007626220411</v>
+        <v>689.6697356880143</v>
       </c>
       <c r="N18" t="n">
-        <v>1692.808462050298</v>
+        <v>1335.650067755131</v>
       </c>
       <c r="O18" t="n">
         <v>1896.363215178962</v>
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>347.0444934954814</v>
+        <v>117.5072444608486</v>
       </c>
       <c r="C19" t="n">
-        <v>234.0659521408047</v>
+        <v>94.65843872180051</v>
       </c>
       <c r="D19" t="n">
-        <v>83.94931272846901</v>
+        <v>90.62917649832357</v>
       </c>
       <c r="E19" t="n">
-        <v>82.12359633493469</v>
+        <v>88.80346010478925</v>
       </c>
       <c r="F19" t="n">
-        <v>81.32102602588313</v>
+        <v>88.00088979573769</v>
       </c>
       <c r="G19" t="n">
-        <v>58.95989942638425</v>
+        <v>65.63976319623882</v>
       </c>
       <c r="H19" t="n">
-        <v>52.20043087411047</v>
+        <v>58.88029464396504</v>
       </c>
       <c r="I19" t="n">
-        <v>52.20043087411047</v>
+        <v>58.88029464396504</v>
       </c>
       <c r="J19" t="n">
-        <v>52.20043087411047</v>
+        <v>52.20043087411048</v>
       </c>
       <c r="K19" t="n">
-        <v>171.2786430968842</v>
+        <v>171.2786430968841</v>
       </c>
       <c r="L19" t="n">
-        <v>379.1841921514302</v>
+        <v>379.1841921514301</v>
       </c>
       <c r="M19" t="n">
-        <v>608.7805662149707</v>
+        <v>608.7805662149706</v>
       </c>
       <c r="N19" t="n">
-        <v>838.352268098262</v>
+        <v>838.3522680982619</v>
       </c>
       <c r="O19" t="n">
         <v>1034.382596529673</v>
@@ -5695,28 +5695,28 @@
         <v>1195.013110181716</v>
       </c>
       <c r="R19" t="n">
-        <v>1071.654745770362</v>
+        <v>1134.292251113447</v>
       </c>
       <c r="S19" t="n">
-        <v>1013.061293771339</v>
+        <v>1075.698799114424</v>
       </c>
       <c r="T19" t="n">
-        <v>934.1960231056695</v>
+        <v>996.8335284487542</v>
       </c>
       <c r="U19" t="n">
-        <v>791.1398606658222</v>
+        <v>707.6899888200481</v>
       </c>
       <c r="V19" t="n">
-        <v>682.5427496487941</v>
+        <v>453.0055006141613</v>
       </c>
       <c r="W19" t="n">
-        <v>539.2129568006923</v>
+        <v>309.6757077660594</v>
       </c>
       <c r="X19" t="n">
-        <v>457.3107830915337</v>
+        <v>227.7735340569008</v>
       </c>
       <c r="Y19" t="n">
-        <v>382.6055811368624</v>
+        <v>153.0683321022295</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1329.594823140047</v>
+        <v>1431.021337346029</v>
       </c>
       <c r="C20" t="n">
-        <v>1106.719683388494</v>
+        <v>1208.146197594476</v>
       </c>
       <c r="D20" t="n">
-        <v>995.9678761765839</v>
+        <v>995.967876176584</v>
       </c>
       <c r="E20" t="n">
-        <v>756.2670007671984</v>
+        <v>756.2670007671985</v>
       </c>
       <c r="F20" t="n">
-        <v>491.3684731664496</v>
+        <v>491.3684731664497</v>
       </c>
       <c r="G20" t="n">
-        <v>220.7210631716098</v>
+        <v>220.7210631716099</v>
       </c>
       <c r="H20" t="n">
-        <v>52.20043087411047</v>
+        <v>52.20043087411048</v>
       </c>
       <c r="I20" t="n">
-        <v>52.20043087411047</v>
+        <v>52.20043087411048</v>
       </c>
       <c r="J20" t="n">
-        <v>102.7984511139569</v>
+        <v>270.2041001343099</v>
       </c>
       <c r="K20" t="n">
-        <v>550.274243961258</v>
+        <v>717.6798929816108</v>
       </c>
       <c r="L20" t="n">
-        <v>1157.684161046836</v>
+        <v>911.6052076622427</v>
       </c>
       <c r="M20" t="n">
-        <v>1405.132876480992</v>
+        <v>1159.053923096399</v>
       </c>
       <c r="N20" t="n">
-        <v>1661.199379209373</v>
+        <v>1415.120425824779</v>
       </c>
       <c r="O20" t="n">
-        <v>2266.652634747316</v>
+        <v>1826.686216137698</v>
       </c>
       <c r="P20" t="n">
-        <v>2427.137876695519</v>
+        <v>2305.752179175668</v>
       </c>
       <c r="Q20" t="n">
-        <v>2610.021543705524</v>
+        <v>2588.28900646351</v>
       </c>
       <c r="R20" t="n">
         <v>2610.021543705524</v>
       </c>
       <c r="S20" t="n">
-        <v>2607.937747380084</v>
+        <v>2610.021543705524</v>
       </c>
       <c r="T20" t="n">
-        <v>2540.770496610051</v>
+        <v>2542.854292935491</v>
       </c>
       <c r="U20" t="n">
-        <v>2433.194410110451</v>
+        <v>2435.278206435891</v>
       </c>
       <c r="V20" t="n">
-        <v>2248.218899955739</v>
+        <v>2250.302696281179</v>
       </c>
       <c r="W20" t="n">
-        <v>2041.537621874484</v>
+        <v>2043.621418199923</v>
       </c>
       <c r="X20" t="n">
-        <v>1814.159240802263</v>
+        <v>1915.585755008245</v>
       </c>
       <c r="Y20" t="n">
-        <v>1570.10728601531</v>
+        <v>1671.533800221292</v>
       </c>
     </row>
     <row r="21">
@@ -5817,37 +5817,37 @@
         <v>474.4815601271822</v>
       </c>
       <c r="F21" t="n">
-        <v>327.9470021540671</v>
+        <v>327.9470021540672</v>
       </c>
       <c r="G21" t="n">
         <v>190.6944732642093</v>
       </c>
       <c r="H21" t="n">
-        <v>91.60256992448004</v>
+        <v>91.60256992448006</v>
       </c>
       <c r="I21" t="n">
-        <v>52.20043087411047</v>
+        <v>52.20043087411048</v>
       </c>
       <c r="J21" t="n">
         <v>188.3485431278349</v>
       </c>
       <c r="K21" t="n">
-        <v>285.8476107940723</v>
+        <v>547.6681954365249</v>
       </c>
       <c r="L21" t="n">
-        <v>830.4016224091815</v>
+        <v>1092.222207051634</v>
       </c>
       <c r="M21" t="n">
-        <v>1056.801677538439</v>
+        <v>1318.622262180892</v>
       </c>
       <c r="N21" t="n">
-        <v>1303.602513368326</v>
+        <v>1565.423098010779</v>
       </c>
       <c r="O21" t="n">
-        <v>1897.080962580952</v>
+        <v>2158.901547223405</v>
       </c>
       <c r="P21" t="n">
-        <v>2356.396672381</v>
+        <v>2355.67892497901</v>
       </c>
       <c r="Q21" t="n">
         <v>2610.021543705524</v>
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>256.9147578798529</v>
+        <v>117.5072444608486</v>
       </c>
       <c r="C22" t="n">
-        <v>234.0659521408047</v>
+        <v>94.65843872180051</v>
       </c>
       <c r="D22" t="n">
-        <v>230.0366899173278</v>
+        <v>90.62917649832357</v>
       </c>
       <c r="E22" t="n">
-        <v>228.2109735237935</v>
+        <v>88.80346010478925</v>
       </c>
       <c r="F22" t="n">
-        <v>81.32102602588313</v>
+        <v>88.00088979573769</v>
       </c>
       <c r="G22" t="n">
-        <v>58.95989942638425</v>
+        <v>65.63976319623882</v>
       </c>
       <c r="H22" t="n">
-        <v>52.20043087411047</v>
+        <v>58.88029464396504</v>
       </c>
       <c r="I22" t="n">
-        <v>52.20043087411047</v>
+        <v>58.88029464396504</v>
       </c>
       <c r="J22" t="n">
-        <v>52.20043087411047</v>
+        <v>52.20043087411048</v>
       </c>
       <c r="K22" t="n">
-        <v>171.2786430968842</v>
+        <v>171.2786430968841</v>
       </c>
       <c r="L22" t="n">
-        <v>379.1841921514302</v>
+        <v>379.1841921514301</v>
       </c>
       <c r="M22" t="n">
-        <v>608.7805662149707</v>
+        <v>608.7805662149706</v>
       </c>
       <c r="N22" t="n">
-        <v>838.352268098262</v>
+        <v>838.3522680982619</v>
       </c>
       <c r="O22" t="n">
         <v>1034.382596529673</v>
@@ -5941,19 +5941,19 @@
         <v>1057.554387517023</v>
       </c>
       <c r="U22" t="n">
-        <v>914.4982250771758</v>
+        <v>768.4108478883165</v>
       </c>
       <c r="V22" t="n">
-        <v>738.5003912220243</v>
+        <v>659.8137368712885</v>
       </c>
       <c r="W22" t="n">
-        <v>449.0832211850636</v>
+        <v>516.4839440231866</v>
       </c>
       <c r="X22" t="n">
-        <v>367.1810474759051</v>
+        <v>288.4943931251693</v>
       </c>
       <c r="Y22" t="n">
-        <v>292.4758455212338</v>
+        <v>153.0683321022295</v>
       </c>
     </row>
     <row r="23">
@@ -5963,16 +5963,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1433.091266207374</v>
+        <v>1433.091266207375</v>
       </c>
       <c r="C23" t="n">
-        <v>1210.216126455821</v>
+        <v>1210.216126455822</v>
       </c>
       <c r="D23" t="n">
-        <v>998.0378050379297</v>
+        <v>998.0378050379304</v>
       </c>
       <c r="E23" t="n">
-        <v>758.3369296285446</v>
+        <v>758.336929628545</v>
       </c>
       <c r="F23" t="n">
         <v>493.4384020277962</v>
@@ -5987,28 +5987,28 @@
         <v>54.27035973545703</v>
       </c>
       <c r="J23" t="n">
-        <v>104.8683799753035</v>
+        <v>272.2740289956564</v>
       </c>
       <c r="K23" t="n">
-        <v>231.4402143771514</v>
+        <v>719.7498218429573</v>
       </c>
       <c r="L23" t="n">
-        <v>838.8501314627295</v>
+        <v>913.6751365235892</v>
       </c>
       <c r="M23" t="n">
-        <v>1510.44583318901</v>
+        <v>1161.123851957745</v>
       </c>
       <c r="N23" t="n">
-        <v>2182.041534915291</v>
+        <v>1417.190354686126</v>
       </c>
       <c r="O23" t="n">
-        <v>2458.955221048099</v>
+        <v>1951.91519644704</v>
       </c>
       <c r="P23" t="n">
-        <v>2619.440462996301</v>
+        <v>2430.98115948501</v>
       </c>
       <c r="Q23" t="n">
-        <v>2691.785449530837</v>
+        <v>2713.517986772852</v>
       </c>
       <c r="R23" t="n">
         <v>2713.517986772852</v>
@@ -6020,19 +6020,19 @@
         <v>2644.266939677379</v>
       </c>
       <c r="U23" t="n">
-        <v>2536.690853177779</v>
+        <v>2536.69085317778</v>
       </c>
       <c r="V23" t="n">
-        <v>2351.715343023067</v>
+        <v>2351.715343023068</v>
       </c>
       <c r="W23" t="n">
-        <v>2145.034064941811</v>
+        <v>2145.034064941813</v>
       </c>
       <c r="X23" t="n">
-        <v>1917.65568386959</v>
+        <v>1917.655683869591</v>
       </c>
       <c r="Y23" t="n">
-        <v>1673.603729082637</v>
+        <v>1673.603729082638</v>
       </c>
     </row>
     <row r="24">
@@ -6060,31 +6060,31 @@
         <v>192.7644021255559</v>
       </c>
       <c r="H24" t="n">
-        <v>93.6724987858266</v>
+        <v>93.67249878582663</v>
       </c>
       <c r="I24" t="n">
         <v>54.27035973545703</v>
       </c>
       <c r="J24" t="n">
-        <v>65.58834700217672</v>
+        <v>190.4184719891815</v>
       </c>
       <c r="K24" t="n">
-        <v>287.1997922534284</v>
+        <v>549.7381242978715</v>
       </c>
       <c r="L24" t="n">
-        <v>831.7538038685377</v>
+        <v>1094.29213591298</v>
       </c>
       <c r="M24" t="n">
-        <v>1058.153858997795</v>
+        <v>1765.887837639261</v>
       </c>
       <c r="N24" t="n">
-        <v>1304.954694827682</v>
+        <v>2218.133046723673</v>
       </c>
       <c r="O24" t="n">
-        <v>1898.433144040308</v>
+        <v>2421.687799852337</v>
       </c>
       <c r="P24" t="n">
-        <v>2357.748853840356</v>
+        <v>2565.725368698847</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.09147256687</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>112.8973095523406</v>
+        <v>232.6472319654269</v>
       </c>
       <c r="C25" t="n">
-        <v>90.04850381329251</v>
+        <v>209.7984262263788</v>
       </c>
       <c r="D25" t="n">
-        <v>86.01924158981558</v>
+        <v>205.7691640029018</v>
       </c>
       <c r="E25" t="n">
-        <v>84.19352519628126</v>
+        <v>203.9434476093675</v>
       </c>
       <c r="F25" t="n">
-        <v>83.3909548872297</v>
+        <v>203.140877300316</v>
       </c>
       <c r="G25" t="n">
-        <v>61.02982828773082</v>
+        <v>180.7797507008171</v>
       </c>
       <c r="H25" t="n">
-        <v>54.27035973545703</v>
+        <v>174.0202821485433</v>
       </c>
       <c r="I25" t="n">
         <v>54.27035973545703</v>
@@ -6148,16 +6148,16 @@
         <v>54.27035973545703</v>
       </c>
       <c r="K25" t="n">
-        <v>173.3485719582308</v>
+        <v>173.3485719582307</v>
       </c>
       <c r="L25" t="n">
-        <v>381.2541210127767</v>
+        <v>381.2541210127766</v>
       </c>
       <c r="M25" t="n">
-        <v>610.8504950763173</v>
+        <v>610.8504950763171</v>
       </c>
       <c r="N25" t="n">
-        <v>840.4221969596086</v>
+        <v>840.4221969596083</v>
       </c>
       <c r="O25" t="n">
         <v>1036.45252539102</v>
@@ -6166,31 +6166,31 @@
         <v>1180.669654420918</v>
       </c>
       <c r="Q25" t="n">
-        <v>1197.083039043063</v>
+        <v>1197.083039043062</v>
       </c>
       <c r="R25" t="n">
-        <v>1197.083039043063</v>
+        <v>1197.083039043062</v>
       </c>
       <c r="S25" t="n">
-        <v>1138.48958704404</v>
+        <v>1044.751409430143</v>
       </c>
       <c r="T25" t="n">
-        <v>913.5369391895109</v>
+        <v>819.7987615756149</v>
       </c>
       <c r="U25" t="n">
-        <v>770.4807767496636</v>
+        <v>676.7425991357676</v>
       </c>
       <c r="V25" t="n">
-        <v>661.8836657326356</v>
+        <v>568.1454881187395</v>
       </c>
       <c r="W25" t="n">
-        <v>518.5538728845337</v>
+        <v>424.8156952706377</v>
       </c>
       <c r="X25" t="n">
-        <v>436.6516991753751</v>
+        <v>342.9135215614791</v>
       </c>
       <c r="Y25" t="n">
-        <v>294.5457743825804</v>
+        <v>268.2083196068078</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>667.2234295874619</v>
       </c>
       <c r="G26" t="n">
-        <v>331.6647365253302</v>
+        <v>331.6647365253298</v>
       </c>
       <c r="H26" t="n">
-        <v>98.23282116053866</v>
+        <v>98.23282116053872</v>
       </c>
       <c r="I26" t="n">
         <v>73.32476822280036</v>
       </c>
       <c r="J26" t="n">
-        <v>291.3284374829998</v>
+        <v>286.0754447709696</v>
       </c>
       <c r="K26" t="n">
-        <v>665.5250189104835</v>
+        <v>733.5512376182705</v>
       </c>
       <c r="L26" t="n">
-        <v>1272.934935996062</v>
+        <v>1340.961154703848</v>
       </c>
       <c r="M26" t="n">
-        <v>1965.402049588122</v>
+        <v>1588.409870138004</v>
       </c>
       <c r="N26" t="n">
-        <v>2654.442007484367</v>
+        <v>2277.44982803425</v>
       </c>
       <c r="O26" t="n">
         <v>2882.903083572192</v>
@@ -6254,7 +6254,7 @@
         <v>3599.243331747287</v>
       </c>
       <c r="T26" t="n">
-        <v>3467.164797909962</v>
+        <v>3467.164797909963</v>
       </c>
       <c r="U26" t="n">
         <v>3294.67742834307</v>
@@ -6291,13 +6291,13 @@
         <v>495.6058974758721</v>
       </c>
       <c r="F27" t="n">
-        <v>349.071339502757</v>
+        <v>349.0713395027571</v>
       </c>
       <c r="G27" t="n">
         <v>211.8188106128992</v>
       </c>
       <c r="H27" t="n">
-        <v>112.7269072731699</v>
+        <v>112.72690727317</v>
       </c>
       <c r="I27" t="n">
         <v>73.32476822280036</v>
@@ -6309,13 +6309,13 @@
         <v>568.7925327852149</v>
       </c>
       <c r="L27" t="n">
-        <v>1113.346544400324</v>
+        <v>746.2146025498995</v>
       </c>
       <c r="M27" t="n">
-        <v>1339.746599529582</v>
+        <v>972.6146576791571</v>
       </c>
       <c r="N27" t="n">
-        <v>1586.547435359469</v>
+        <v>1324.009103315026</v>
       </c>
       <c r="O27" t="n">
         <v>1917.487552527652</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>559.9932447349532</v>
+        <v>559.9932447349534</v>
       </c>
       <c r="C28" t="n">
-        <v>472.2331559286134</v>
+        <v>472.2331559286135</v>
       </c>
       <c r="D28" t="n">
-        <v>403.2926106378447</v>
+        <v>403.2926106378449</v>
       </c>
       <c r="E28" t="n">
-        <v>336.5556111770187</v>
+        <v>336.5556111770188</v>
       </c>
       <c r="F28" t="n">
-        <v>270.8417578006754</v>
+        <v>270.8417578006755</v>
       </c>
       <c r="G28" t="n">
-        <v>183.5693481338848</v>
+        <v>183.5693481338849</v>
       </c>
       <c r="H28" t="n">
-        <v>111.8985965143193</v>
+        <v>111.8985965143194</v>
       </c>
       <c r="I28" t="n">
         <v>73.32476822280036</v>
       </c>
       <c r="J28" t="n">
-        <v>146.3385235905135</v>
+        <v>146.3385235905138</v>
       </c>
       <c r="K28" t="n">
-        <v>344.9774256618352</v>
+        <v>344.9774256618354</v>
       </c>
       <c r="L28" t="n">
-        <v>632.443664564929</v>
+        <v>632.4436645649293</v>
       </c>
       <c r="M28" t="n">
-        <v>941.6007284770175</v>
+        <v>941.6007284770176</v>
       </c>
       <c r="N28" t="n">
         <v>1250.733120208857</v>
@@ -6421,13 +6421,13 @@
         <v>1155.136633157432</v>
       </c>
       <c r="W28" t="n">
-        <v>946.895557242039</v>
+        <v>946.8955572420389</v>
       </c>
       <c r="X28" t="n">
-        <v>800.0821004655887</v>
+        <v>800.0821004655886</v>
       </c>
       <c r="Y28" t="n">
-        <v>660.4656154436259</v>
+        <v>660.465615443626</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1866.521426036206</v>
+        <v>1866.521426036207</v>
       </c>
       <c r="C29" t="n">
-        <v>1578.735003217361</v>
+        <v>1578.735003217362</v>
       </c>
       <c r="D29" t="n">
-        <v>1301.645398732178</v>
+        <v>1301.645398732179</v>
       </c>
       <c r="E29" t="n">
-        <v>997.0332402555006</v>
+        <v>997.0332402555014</v>
       </c>
       <c r="F29" t="n">
-        <v>667.2234295874603</v>
+        <v>667.2234295874609</v>
       </c>
       <c r="G29" t="n">
         <v>331.6647365253293</v>
       </c>
       <c r="H29" t="n">
-        <v>98.23282116053858</v>
+        <v>98.23282116053868</v>
       </c>
       <c r="I29" t="n">
-        <v>73.32476822280033</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J29" t="n">
-        <v>123.9227884626468</v>
+        <v>291.3284374829998</v>
       </c>
       <c r="K29" t="n">
-        <v>520.4572174556832</v>
+        <v>687.2575561524973</v>
       </c>
       <c r="L29" t="n">
-        <v>1127.867134541261</v>
+        <v>1294.667473238075</v>
       </c>
       <c r="M29" t="n">
-        <v>1820.334248133322</v>
+        <v>1987.134586830136</v>
       </c>
       <c r="N29" t="n">
-        <v>2509.374206029567</v>
+        <v>2676.174544726381</v>
       </c>
       <c r="O29" t="n">
-        <v>3114.82746156751</v>
+        <v>2904.635620814206</v>
       </c>
       <c r="P29" t="n">
-        <v>3593.89342460548</v>
+        <v>3383.701583852176</v>
       </c>
       <c r="Q29" t="n">
-        <v>3666.238411140016</v>
+        <v>3666.238411140017</v>
       </c>
       <c r="R29" t="n">
-        <v>3666.238411140016</v>
+        <v>3666.238411140017</v>
       </c>
       <c r="S29" t="n">
-        <v>3599.243331747285</v>
+        <v>3599.243331747286</v>
       </c>
       <c r="T29" t="n">
-        <v>3467.164797909961</v>
+        <v>3467.164797909962</v>
       </c>
       <c r="U29" t="n">
-        <v>3294.677428343069</v>
+        <v>3294.67742834307</v>
       </c>
       <c r="V29" t="n">
-        <v>3044.790635121065</v>
+        <v>3044.790635121066</v>
       </c>
       <c r="W29" t="n">
-        <v>2773.198073972518</v>
+        <v>2773.198073972519</v>
       </c>
       <c r="X29" t="n">
-        <v>2480.908409833005</v>
+        <v>2480.908409833006</v>
       </c>
       <c r="Y29" t="n">
-        <v>2171.94517197876</v>
+        <v>2171.945171978761</v>
       </c>
     </row>
     <row r="30">
@@ -6531,34 +6531,34 @@
         <v>349.071339502757</v>
       </c>
       <c r="G30" t="n">
-        <v>211.8188106128991</v>
+        <v>211.8188106128992</v>
       </c>
       <c r="H30" t="n">
         <v>112.7269072731699</v>
       </c>
       <c r="I30" t="n">
-        <v>73.32476822280033</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J30" t="n">
-        <v>154.9110632905725</v>
+        <v>209.4728804765248</v>
       </c>
       <c r="K30" t="n">
-        <v>514.2307155992627</v>
+        <v>568.7925327852149</v>
       </c>
       <c r="L30" t="n">
-        <v>1058.784727214372</v>
+        <v>1113.346544400324</v>
       </c>
       <c r="M30" t="n">
-        <v>1285.18478234363</v>
+        <v>1339.746599529582</v>
       </c>
       <c r="N30" t="n">
-        <v>1531.985618173517</v>
+        <v>1586.547435359469</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.464067386143</v>
+        <v>1917.487552527652</v>
       </c>
       <c r="P30" t="n">
-        <v>2584.779777186191</v>
+        <v>2376.8032623277</v>
       </c>
       <c r="Q30" t="n">
         <v>2631.145881054214</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>559.9932447349529</v>
+        <v>559.9932447349534</v>
       </c>
       <c r="C31" t="n">
-        <v>472.2331559286131</v>
+        <v>472.2331559286135</v>
       </c>
       <c r="D31" t="n">
-        <v>403.2926106378446</v>
+        <v>403.2926106378449</v>
       </c>
       <c r="E31" t="n">
-        <v>336.5556111770186</v>
+        <v>336.5556111770188</v>
       </c>
       <c r="F31" t="n">
-        <v>270.8417578006754</v>
+        <v>270.8417578006755</v>
       </c>
       <c r="G31" t="n">
         <v>183.5693481338849</v>
       </c>
       <c r="H31" t="n">
-        <v>111.8985965143194</v>
+        <v>111.8985965143195</v>
       </c>
       <c r="I31" t="n">
-        <v>73.32476822280033</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J31" t="n">
-        <v>146.3385235905135</v>
+        <v>146.3385235905139</v>
       </c>
       <c r="K31" t="n">
-        <v>344.9774256618352</v>
+        <v>344.9774256618355</v>
       </c>
       <c r="L31" t="n">
         <v>632.4436645649291</v>
       </c>
       <c r="M31" t="n">
-        <v>941.6007284770176</v>
+        <v>941.6007284770175</v>
       </c>
       <c r="N31" t="n">
         <v>1250.733120208857</v>
       </c>
       <c r="O31" t="n">
-        <v>1526.324138488817</v>
+        <v>1526.324138488816</v>
       </c>
       <c r="P31" t="n">
         <v>1750.101957367262</v>
       </c>
       <c r="Q31" t="n">
-        <v>1846.076031837955</v>
+        <v>1846.076031837954</v>
       </c>
       <c r="R31" t="n">
         <v>1803.893761548168</v>
       </c>
       <c r="S31" t="n">
-        <v>1680.389026481854</v>
+        <v>1680.389026481853</v>
       </c>
       <c r="T31" t="n">
-        <v>1536.612472748892</v>
+        <v>1536.612472748891</v>
       </c>
       <c r="U31" t="n">
-        <v>1328.645027241753</v>
+        <v>1328.645027241752</v>
       </c>
       <c r="V31" t="n">
-        <v>1155.136633157434</v>
+        <v>1155.136633157432</v>
       </c>
       <c r="W31" t="n">
-        <v>946.89555724204</v>
+        <v>946.8955572420389</v>
       </c>
       <c r="X31" t="n">
-        <v>800.0821004655896</v>
+        <v>800.0821004655886</v>
       </c>
       <c r="Y31" t="n">
-        <v>660.465615443627</v>
+        <v>660.465615443626</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1866.521426036206</v>
+        <v>1866.521426036207</v>
       </c>
       <c r="C32" t="n">
         <v>1578.735003217362</v>
@@ -6683,46 +6683,46 @@
         <v>1301.645398732178</v>
       </c>
       <c r="E32" t="n">
-        <v>997.0332402555009</v>
+        <v>997.0332402555014</v>
       </c>
       <c r="F32" t="n">
-        <v>667.2234295874605</v>
+        <v>667.2234295874609</v>
       </c>
       <c r="G32" t="n">
-        <v>331.6647365253289</v>
+        <v>331.6647365253293</v>
       </c>
       <c r="H32" t="n">
-        <v>98.23282116053865</v>
+        <v>98.23282116053866</v>
       </c>
       <c r="I32" t="n">
         <v>73.32476822280033</v>
       </c>
       <c r="J32" t="n">
-        <v>123.9227884626468</v>
+        <v>291.3284374829997</v>
       </c>
       <c r="K32" t="n">
-        <v>520.4572174556832</v>
+        <v>738.8042303303007</v>
       </c>
       <c r="L32" t="n">
-        <v>1127.867134541261</v>
+        <v>1346.214147415879</v>
       </c>
       <c r="M32" t="n">
-        <v>1820.334248133322</v>
+        <v>1610.142407380017</v>
       </c>
       <c r="N32" t="n">
-        <v>2509.374206029567</v>
+        <v>2299.182365276262</v>
       </c>
       <c r="O32" t="n">
-        <v>3114.82746156751</v>
+        <v>2904.635620814205</v>
       </c>
       <c r="P32" t="n">
-        <v>3593.89342460548</v>
+        <v>3383.701583852175</v>
       </c>
       <c r="Q32" t="n">
-        <v>3666.238411140016</v>
+        <v>3666.238411140017</v>
       </c>
       <c r="R32" t="n">
-        <v>3666.238411140016</v>
+        <v>3666.238411140017</v>
       </c>
       <c r="S32" t="n">
         <v>3599.243331747285</v>
@@ -6734,13 +6734,13 @@
         <v>3294.677428343069</v>
       </c>
       <c r="V32" t="n">
-        <v>3044.790635121065</v>
+        <v>3044.790635121066</v>
       </c>
       <c r="W32" t="n">
-        <v>2773.198073972518</v>
+        <v>2773.198073972519</v>
       </c>
       <c r="X32" t="n">
-        <v>2480.908409833005</v>
+        <v>2480.908409833006</v>
       </c>
       <c r="Y32" t="n">
         <v>2171.945171978761</v>
@@ -6768,7 +6768,7 @@
         <v>349.071339502757</v>
       </c>
       <c r="G33" t="n">
-        <v>211.8188106128991</v>
+        <v>211.8188106128992</v>
       </c>
       <c r="H33" t="n">
         <v>112.7269072731699</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>559.9932447349535</v>
+        <v>559.9932447349532</v>
       </c>
       <c r="C34" t="n">
-        <v>472.2331559286137</v>
+        <v>472.2331559286134</v>
       </c>
       <c r="D34" t="n">
-        <v>403.292610637845</v>
+        <v>403.2926106378447</v>
       </c>
       <c r="E34" t="n">
-        <v>336.5556111770189</v>
+        <v>336.5556111770187</v>
       </c>
       <c r="F34" t="n">
-        <v>270.8417578006756</v>
+        <v>270.8417578006754</v>
       </c>
       <c r="G34" t="n">
-        <v>183.569348133885</v>
+        <v>183.5693481338848</v>
       </c>
       <c r="H34" t="n">
         <v>111.8985965143195</v>
@@ -6856,16 +6856,16 @@
         <v>73.32476822280033</v>
       </c>
       <c r="J34" t="n">
-        <v>146.3385235905139</v>
+        <v>146.3385235905135</v>
       </c>
       <c r="K34" t="n">
-        <v>344.9774256618355</v>
+        <v>344.9774256618353</v>
       </c>
       <c r="L34" t="n">
-        <v>632.4436645649293</v>
+        <v>632.4436645649291</v>
       </c>
       <c r="M34" t="n">
-        <v>941.6007284770177</v>
+        <v>941.6007284770175</v>
       </c>
       <c r="N34" t="n">
         <v>1250.733120208857</v>
@@ -6877,7 +6877,7 @@
         <v>1750.101957367262</v>
       </c>
       <c r="Q34" t="n">
-        <v>1846.076031837955</v>
+        <v>1846.076031837954</v>
       </c>
       <c r="R34" t="n">
         <v>1803.893761548168</v>
@@ -6886,22 +6886,22 @@
         <v>1680.389026481853</v>
       </c>
       <c r="T34" t="n">
-        <v>1536.612472748892</v>
+        <v>1536.612472748891</v>
       </c>
       <c r="U34" t="n">
-        <v>1328.645027241753</v>
+        <v>1328.645027241752</v>
       </c>
       <c r="V34" t="n">
-        <v>1155.136633157433</v>
+        <v>1155.136633157432</v>
       </c>
       <c r="W34" t="n">
-        <v>946.8955572420394</v>
+        <v>946.8955572420389</v>
       </c>
       <c r="X34" t="n">
-        <v>800.0821004655892</v>
+        <v>800.0821004655886</v>
       </c>
       <c r="Y34" t="n">
-        <v>660.4656154436261</v>
+        <v>660.4656154436259</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1866.521426036206</v>
+        <v>1866.521426036207</v>
       </c>
       <c r="C35" t="n">
-        <v>1578.735003217362</v>
+        <v>1578.735003217363</v>
       </c>
       <c r="D35" t="n">
-        <v>1301.645398732178</v>
+        <v>1301.64539873218</v>
       </c>
       <c r="E35" t="n">
-        <v>997.0332402555014</v>
+        <v>997.0332402555023</v>
       </c>
       <c r="F35" t="n">
-        <v>667.2234295874609</v>
+        <v>667.2234295874614</v>
       </c>
       <c r="G35" t="n">
-        <v>331.6647365253293</v>
+        <v>331.6647365253298</v>
       </c>
       <c r="H35" t="n">
-        <v>98.23282116053865</v>
+        <v>98.23282116053866</v>
       </c>
       <c r="I35" t="n">
-        <v>73.32476822280034</v>
+        <v>73.32476822280036</v>
       </c>
       <c r="J35" t="n">
-        <v>291.3284374829998</v>
+        <v>276.2741862600248</v>
       </c>
       <c r="K35" t="n">
-        <v>738.8042303303008</v>
+        <v>723.7499791073258</v>
       </c>
       <c r="L35" t="n">
-        <v>1346.214147415879</v>
+        <v>917.6752937879578</v>
       </c>
       <c r="M35" t="n">
-        <v>1820.334248133322</v>
+        <v>1610.142407380018</v>
       </c>
       <c r="N35" t="n">
-        <v>2509.374206029568</v>
+        <v>2299.182365276263</v>
       </c>
       <c r="O35" t="n">
-        <v>3114.827461567511</v>
+        <v>2904.635620814207</v>
       </c>
       <c r="P35" t="n">
-        <v>3593.893424605481</v>
+        <v>3383.701583852176</v>
       </c>
       <c r="Q35" t="n">
-        <v>3666.238411140017</v>
+        <v>3666.238411140018</v>
       </c>
       <c r="R35" t="n">
-        <v>3666.238411140017</v>
+        <v>3666.238411140018</v>
       </c>
       <c r="S35" t="n">
-        <v>3599.243331747286</v>
+        <v>3599.243331747287</v>
       </c>
       <c r="T35" t="n">
-        <v>3467.164797909962</v>
+        <v>3467.164797909963</v>
       </c>
       <c r="U35" t="n">
         <v>3294.67742834307</v>
       </c>
       <c r="V35" t="n">
-        <v>3044.790635121066</v>
+        <v>3044.790635121067</v>
       </c>
       <c r="W35" t="n">
-        <v>2773.198073972519</v>
+        <v>2773.19807397252</v>
       </c>
       <c r="X35" t="n">
-        <v>2480.908409833006</v>
+        <v>2480.908409833007</v>
       </c>
       <c r="Y35" t="n">
-        <v>2171.945171978761</v>
+        <v>2171.945171978762</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>112.7269072731699</v>
       </c>
       <c r="I36" t="n">
-        <v>73.32476822280034</v>
+        <v>73.32476822280036</v>
       </c>
       <c r="J36" t="n">
-        <v>101.3381243248412</v>
+        <v>209.4728804765248</v>
       </c>
       <c r="K36" t="n">
-        <v>198.8371919910786</v>
+        <v>568.7925327852149</v>
       </c>
       <c r="L36" t="n">
-        <v>376.2592617557632</v>
+        <v>1113.346544400324</v>
       </c>
       <c r="M36" t="n">
-        <v>602.659316885021</v>
+        <v>1782.410104522639</v>
       </c>
       <c r="N36" t="n">
-        <v>1324.009103315026</v>
+        <v>2029.210940352526</v>
       </c>
       <c r="O36" t="n">
-        <v>1917.487552527652</v>
+        <v>2232.76569348119</v>
       </c>
       <c r="P36" t="n">
         <v>2376.8032623277</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>559.9932447349534</v>
+        <v>559.9932447349529</v>
       </c>
       <c r="C37" t="n">
-        <v>472.2331559286135</v>
+        <v>472.233155928613</v>
       </c>
       <c r="D37" t="n">
-        <v>403.2926106378449</v>
+        <v>403.2926106378444</v>
       </c>
       <c r="E37" t="n">
-        <v>336.5556111770188</v>
+        <v>336.5556111770184</v>
       </c>
       <c r="F37" t="n">
-        <v>270.8417578006756</v>
+        <v>270.8417578006752</v>
       </c>
       <c r="G37" t="n">
-        <v>183.569348133885</v>
+        <v>183.5693481338846</v>
       </c>
       <c r="H37" t="n">
-        <v>111.8985965143195</v>
+        <v>111.8985965143191</v>
       </c>
       <c r="I37" t="n">
-        <v>73.32476822280034</v>
+        <v>73.32476822280036</v>
       </c>
       <c r="J37" t="n">
-        <v>146.3385235905138</v>
+        <v>146.3385235905133</v>
       </c>
       <c r="K37" t="n">
-        <v>344.9774256618355</v>
+        <v>344.9774256618349</v>
       </c>
       <c r="L37" t="n">
-        <v>632.4436645649293</v>
+        <v>632.4436645649288</v>
       </c>
       <c r="M37" t="n">
-        <v>941.6007284770178</v>
+        <v>941.600728477017</v>
       </c>
       <c r="N37" t="n">
-        <v>1250.733120208857</v>
+        <v>1250.733120208856</v>
       </c>
       <c r="O37" t="n">
-        <v>1526.324138488817</v>
+        <v>1526.324138488816</v>
       </c>
       <c r="P37" t="n">
         <v>1750.101957367262</v>
       </c>
       <c r="Q37" t="n">
-        <v>1846.076031837955</v>
+        <v>1846.076031837954</v>
       </c>
       <c r="R37" t="n">
-        <v>1803.893761548168</v>
+        <v>1803.893761548167</v>
       </c>
       <c r="S37" t="n">
-        <v>1680.389026481853</v>
+        <v>1680.389026481852</v>
       </c>
       <c r="T37" t="n">
-        <v>1536.612472748892</v>
+        <v>1536.612472748891</v>
       </c>
       <c r="U37" t="n">
-        <v>1328.645027241753</v>
+        <v>1328.645027241752</v>
       </c>
       <c r="V37" t="n">
-        <v>1155.136633157433</v>
+        <v>1155.136633157432</v>
       </c>
       <c r="W37" t="n">
-        <v>946.8955572420393</v>
+        <v>946.8955572420386</v>
       </c>
       <c r="X37" t="n">
-        <v>800.0821004655891</v>
+        <v>800.0821004655884</v>
       </c>
       <c r="Y37" t="n">
-        <v>660.465615443626</v>
+        <v>660.4656154436254</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1866.521426036206</v>
+        <v>1866.521426036208</v>
       </c>
       <c r="C38" t="n">
-        <v>1578.735003217361</v>
+        <v>1578.735003217363</v>
       </c>
       <c r="D38" t="n">
-        <v>1301.645398732177</v>
+        <v>1301.64539873218</v>
       </c>
       <c r="E38" t="n">
-        <v>997.0332402555005</v>
+        <v>997.0332402555027</v>
       </c>
       <c r="F38" t="n">
-        <v>667.22342958746</v>
+        <v>667.2234295874623</v>
       </c>
       <c r="G38" t="n">
-        <v>331.6647365253289</v>
+        <v>331.6647365253297</v>
       </c>
       <c r="H38" t="n">
-        <v>98.23282116053863</v>
+        <v>98.23282116053868</v>
       </c>
       <c r="I38" t="n">
-        <v>73.32476822280033</v>
+        <v>73.32476822280037</v>
       </c>
       <c r="J38" t="n">
-        <v>123.9227884626468</v>
+        <v>291.3284374829998</v>
       </c>
       <c r="K38" t="n">
-        <v>571.3985813099478</v>
+        <v>738.8042303303007</v>
       </c>
       <c r="L38" t="n">
-        <v>1178.808498395526</v>
+        <v>932.7295450109327</v>
       </c>
       <c r="M38" t="n">
-        <v>1871.275611987586</v>
+        <v>1625.196658602993</v>
       </c>
       <c r="N38" t="n">
-        <v>2560.315569883831</v>
+        <v>2314.236616499238</v>
       </c>
       <c r="O38" t="n">
-        <v>3165.768825421775</v>
+        <v>2882.903083572193</v>
       </c>
       <c r="P38" t="n">
-        <v>3593.89342460548</v>
+        <v>3361.969046610163</v>
       </c>
       <c r="Q38" t="n">
-        <v>3666.238411140016</v>
+        <v>3644.505873898005</v>
       </c>
       <c r="R38" t="n">
-        <v>3666.238411140016</v>
+        <v>3666.238411140019</v>
       </c>
       <c r="S38" t="n">
-        <v>3599.243331747285</v>
+        <v>3599.243331747288</v>
       </c>
       <c r="T38" t="n">
-        <v>3467.164797909961</v>
+        <v>3467.164797909963</v>
       </c>
       <c r="U38" t="n">
-        <v>3294.677428343069</v>
+        <v>3294.677428343071</v>
       </c>
       <c r="V38" t="n">
-        <v>3044.790635121065</v>
+        <v>3044.790635121068</v>
       </c>
       <c r="W38" t="n">
-        <v>2773.198073972518</v>
+        <v>2773.19807397252</v>
       </c>
       <c r="X38" t="n">
-        <v>2480.908409833005</v>
+        <v>2480.908409833008</v>
       </c>
       <c r="Y38" t="n">
-        <v>2171.94517197876</v>
+        <v>2171.945171978763</v>
       </c>
     </row>
     <row r="39">
@@ -7239,37 +7239,37 @@
         <v>495.6058974758721</v>
       </c>
       <c r="F39" t="n">
-        <v>349.071339502757</v>
+        <v>349.0713395027571</v>
       </c>
       <c r="G39" t="n">
-        <v>211.8188106128991</v>
+        <v>211.8188106128992</v>
       </c>
       <c r="H39" t="n">
-        <v>112.7269072731699</v>
+        <v>112.72690727317</v>
       </c>
       <c r="I39" t="n">
-        <v>73.32476822280033</v>
+        <v>73.32476822280037</v>
       </c>
       <c r="J39" t="n">
         <v>209.4728804765248</v>
       </c>
       <c r="K39" t="n">
-        <v>568.7925327852149</v>
+        <v>514.230715599263</v>
       </c>
       <c r="L39" t="n">
-        <v>1113.346544400324</v>
+        <v>1058.784727214372</v>
       </c>
       <c r="M39" t="n">
-        <v>1392.486408438677</v>
+        <v>1285.18478234363</v>
       </c>
       <c r="N39" t="n">
-        <v>1639.287244268564</v>
+        <v>1531.985618173517</v>
       </c>
       <c r="O39" t="n">
-        <v>2232.76569348119</v>
+        <v>2125.464067386143</v>
       </c>
       <c r="P39" t="n">
-        <v>2376.8032623277</v>
+        <v>2584.779777186191</v>
       </c>
       <c r="Q39" t="n">
         <v>2631.145881054214</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>559.9932447349535</v>
+        <v>559.9932447349534</v>
       </c>
       <c r="C40" t="n">
-        <v>472.2331559286136</v>
+        <v>472.2331559286135</v>
       </c>
       <c r="D40" t="n">
-        <v>403.292610637845</v>
+        <v>403.2926106378449</v>
       </c>
       <c r="E40" t="n">
-        <v>336.5556111770189</v>
+        <v>336.5556111770188</v>
       </c>
       <c r="F40" t="n">
         <v>270.8417578006756</v>
@@ -7327,22 +7327,22 @@
         <v>111.8985965143195</v>
       </c>
       <c r="I40" t="n">
-        <v>73.32476822280033</v>
+        <v>73.32476822280037</v>
       </c>
       <c r="J40" t="n">
         <v>146.3385235905138</v>
       </c>
       <c r="K40" t="n">
-        <v>344.9774256618352</v>
+        <v>344.9774256618351</v>
       </c>
       <c r="L40" t="n">
-        <v>632.4436645649291</v>
+        <v>632.4436645649289</v>
       </c>
       <c r="M40" t="n">
-        <v>941.6007284770174</v>
+        <v>941.6007284770172</v>
       </c>
       <c r="N40" t="n">
-        <v>1250.733120208857</v>
+        <v>1250.733120208856</v>
       </c>
       <c r="O40" t="n">
         <v>1526.324138488816</v>
@@ -7369,13 +7369,13 @@
         <v>1155.136633157433</v>
       </c>
       <c r="W40" t="n">
-        <v>946.8955572420392</v>
+        <v>946.8955572420391</v>
       </c>
       <c r="X40" t="n">
-        <v>800.082100465589</v>
+        <v>800.0821004655888</v>
       </c>
       <c r="Y40" t="n">
-        <v>660.4656154436261</v>
+        <v>660.4656154436259</v>
       </c>
     </row>
     <row r="41">
@@ -7388,46 +7388,46 @@
         <v>1866.521426036207</v>
       </c>
       <c r="C41" t="n">
-        <v>1578.735003217363</v>
+        <v>1578.735003217362</v>
       </c>
       <c r="D41" t="n">
-        <v>1301.64539873218</v>
+        <v>1301.645398732179</v>
       </c>
       <c r="E41" t="n">
-        <v>997.0332402555023</v>
+        <v>997.0332402555018</v>
       </c>
       <c r="F41" t="n">
-        <v>667.2234295874619</v>
+        <v>667.2234295874614</v>
       </c>
       <c r="G41" t="n">
-        <v>331.6647365253302</v>
+        <v>331.6647365253298</v>
       </c>
       <c r="H41" t="n">
-        <v>98.23282116053866</v>
+        <v>98.23282116053865</v>
       </c>
       <c r="I41" t="n">
         <v>73.32476822280034</v>
       </c>
       <c r="J41" t="n">
-        <v>181.3703049448457</v>
+        <v>123.9227884626467</v>
       </c>
       <c r="K41" t="n">
-        <v>628.8460977921467</v>
+        <v>571.3985813099478</v>
       </c>
       <c r="L41" t="n">
-        <v>1236.256014877725</v>
+        <v>1178.808498395526</v>
       </c>
       <c r="M41" t="n">
-        <v>1928.723128469785</v>
+        <v>1871.275611987586</v>
       </c>
       <c r="N41" t="n">
-        <v>2617.76308636603</v>
+        <v>2560.315569883831</v>
       </c>
       <c r="O41" t="n">
-        <v>3223.216341903973</v>
+        <v>3165.768825421775</v>
       </c>
       <c r="P41" t="n">
-        <v>3383.701583852175</v>
+        <v>3593.893424605481</v>
       </c>
       <c r="Q41" t="n">
         <v>3666.238411140017</v>
@@ -7439,22 +7439,22 @@
         <v>3599.243331747286</v>
       </c>
       <c r="T41" t="n">
-        <v>3467.164797909962</v>
+        <v>3467.164797909961</v>
       </c>
       <c r="U41" t="n">
         <v>3294.67742834307</v>
       </c>
       <c r="V41" t="n">
-        <v>3044.790635121067</v>
+        <v>3044.790635121066</v>
       </c>
       <c r="W41" t="n">
-        <v>2773.19807397252</v>
+        <v>2773.198073972519</v>
       </c>
       <c r="X41" t="n">
-        <v>2480.908409833007</v>
+        <v>2480.908409833006</v>
       </c>
       <c r="Y41" t="n">
-        <v>2171.945171978762</v>
+        <v>2171.945171978761</v>
       </c>
     </row>
     <row r="42">
@@ -7494,13 +7494,13 @@
         <v>568.7925327852149</v>
       </c>
       <c r="L42" t="n">
-        <v>1113.346544400324</v>
+        <v>746.2146025498995</v>
       </c>
       <c r="M42" t="n">
-        <v>1339.746599529582</v>
+        <v>972.6146576791572</v>
       </c>
       <c r="N42" t="n">
-        <v>1586.547435359469</v>
+        <v>1324.009103315026</v>
       </c>
       <c r="O42" t="n">
         <v>1917.487552527652</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>559.9932447349535</v>
+        <v>559.9932447349534</v>
       </c>
       <c r="C43" t="n">
-        <v>472.2331559286137</v>
+        <v>472.2331559286135</v>
       </c>
       <c r="D43" t="n">
-        <v>403.292610637845</v>
+        <v>403.2926106378449</v>
       </c>
       <c r="E43" t="n">
-        <v>336.5556111770189</v>
+        <v>336.5556111770188</v>
       </c>
       <c r="F43" t="n">
         <v>270.8417578006756</v>
@@ -7567,28 +7567,28 @@
         <v>73.32476822280034</v>
       </c>
       <c r="J43" t="n">
-        <v>146.338523590514</v>
+        <v>146.3385235905138</v>
       </c>
       <c r="K43" t="n">
-        <v>344.9774256618356</v>
+        <v>344.9774256618355</v>
       </c>
       <c r="L43" t="n">
         <v>632.4436645649293</v>
       </c>
       <c r="M43" t="n">
-        <v>941.6007284770179</v>
+        <v>941.6007284770178</v>
       </c>
       <c r="N43" t="n">
         <v>1250.733120208857</v>
       </c>
       <c r="O43" t="n">
-        <v>1526.324138488817</v>
+        <v>1526.324138488816</v>
       </c>
       <c r="P43" t="n">
         <v>1750.101957367262</v>
       </c>
       <c r="Q43" t="n">
-        <v>1846.076031837955</v>
+        <v>1846.076031837954</v>
       </c>
       <c r="R43" t="n">
         <v>1803.893761548168</v>
@@ -7597,22 +7597,22 @@
         <v>1680.389026481853</v>
       </c>
       <c r="T43" t="n">
-        <v>1536.612472748892</v>
+        <v>1536.612472748891</v>
       </c>
       <c r="U43" t="n">
-        <v>1328.645027241753</v>
+        <v>1328.645027241752</v>
       </c>
       <c r="V43" t="n">
         <v>1155.136633157433</v>
       </c>
       <c r="W43" t="n">
-        <v>946.8955572420394</v>
+        <v>946.8955572420391</v>
       </c>
       <c r="X43" t="n">
-        <v>800.0821004655892</v>
+        <v>800.0821004655888</v>
       </c>
       <c r="Y43" t="n">
-        <v>660.4656154436261</v>
+        <v>660.4656154436259</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1866.521426036207</v>
+        <v>1866.521426036206</v>
       </c>
       <c r="C44" t="n">
         <v>1578.735003217362</v>
@@ -7631,7 +7631,7 @@
         <v>1301.645398732179</v>
       </c>
       <c r="E44" t="n">
-        <v>997.0332402555018</v>
+        <v>997.0332402555014</v>
       </c>
       <c r="F44" t="n">
         <v>667.2234295874614</v>
@@ -7640,31 +7640,31 @@
         <v>331.6647365253298</v>
       </c>
       <c r="H44" t="n">
-        <v>98.23282116053861</v>
+        <v>98.23282116053865</v>
       </c>
       <c r="I44" t="n">
         <v>73.32476822280034</v>
       </c>
       <c r="J44" t="n">
-        <v>123.9227884626468</v>
+        <v>291.3284374829998</v>
       </c>
       <c r="K44" t="n">
-        <v>520.4572174556841</v>
+        <v>738.8042303303007</v>
       </c>
       <c r="L44" t="n">
-        <v>1127.867134541262</v>
+        <v>1346.214147415879</v>
       </c>
       <c r="M44" t="n">
-        <v>1820.334248133322</v>
+        <v>1610.142407380018</v>
       </c>
       <c r="N44" t="n">
-        <v>2509.374206029568</v>
+        <v>2299.182365276263</v>
       </c>
       <c r="O44" t="n">
-        <v>3114.827461567511</v>
+        <v>2904.635620814206</v>
       </c>
       <c r="P44" t="n">
-        <v>3593.893424605481</v>
+        <v>3383.701583852176</v>
       </c>
       <c r="Q44" t="n">
         <v>3666.238411140017</v>
@@ -7676,7 +7676,7 @@
         <v>3599.243331747286</v>
       </c>
       <c r="T44" t="n">
-        <v>3467.164797909961</v>
+        <v>3467.164797909962</v>
       </c>
       <c r="U44" t="n">
         <v>3294.67742834307</v>
@@ -7728,22 +7728,22 @@
         <v>84.64275548952003</v>
       </c>
       <c r="K45" t="n">
-        <v>182.1418231557574</v>
+        <v>182.1418231557573</v>
       </c>
       <c r="L45" t="n">
-        <v>359.5638929204421</v>
+        <v>438.4659044552923</v>
       </c>
       <c r="M45" t="n">
-        <v>1047.0119611622</v>
+        <v>1125.91397269705</v>
       </c>
       <c r="N45" t="n">
-        <v>1324.009103315026</v>
+        <v>1847.263759127055</v>
       </c>
       <c r="O45" t="n">
-        <v>1917.487552527652</v>
+        <v>2440.74220833968</v>
       </c>
       <c r="P45" t="n">
-        <v>2376.8032623277</v>
+        <v>2584.779777186191</v>
       </c>
       <c r="Q45" t="n">
         <v>2631.145881054214</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>559.9932447349531</v>
+        <v>559.9932447349534</v>
       </c>
       <c r="C46" t="n">
-        <v>472.2331559286133</v>
+        <v>472.2331559286135</v>
       </c>
       <c r="D46" t="n">
-        <v>403.2926106378447</v>
+        <v>403.2926106378449</v>
       </c>
       <c r="E46" t="n">
-        <v>336.5556111770187</v>
+        <v>336.5556111770188</v>
       </c>
       <c r="F46" t="n">
-        <v>270.8417578006755</v>
+        <v>270.8417578006756</v>
       </c>
       <c r="G46" t="n">
-        <v>183.5693481338849</v>
+        <v>183.569348133885</v>
       </c>
       <c r="H46" t="n">
         <v>111.8985965143195</v>
@@ -7804,16 +7804,16 @@
         <v>73.32476822280034</v>
       </c>
       <c r="J46" t="n">
-        <v>146.3385235905128</v>
+        <v>146.3385235905138</v>
       </c>
       <c r="K46" t="n">
-        <v>344.9774256618345</v>
+        <v>344.9774256618355</v>
       </c>
       <c r="L46" t="n">
-        <v>632.4436645649284</v>
+        <v>632.4436645649293</v>
       </c>
       <c r="M46" t="n">
-        <v>941.6007284770169</v>
+        <v>941.6007284770172</v>
       </c>
       <c r="N46" t="n">
         <v>1250.733120208856</v>
@@ -7828,7 +7828,7 @@
         <v>1846.076031837954</v>
       </c>
       <c r="R46" t="n">
-        <v>1803.893761548167</v>
+        <v>1803.893761548168</v>
       </c>
       <c r="S46" t="n">
         <v>1680.389026481853</v>
@@ -7840,16 +7840,16 @@
         <v>1328.645027241752</v>
       </c>
       <c r="V46" t="n">
-        <v>1155.136633157432</v>
+        <v>1155.136633157433</v>
       </c>
       <c r="W46" t="n">
-        <v>946.8955572420389</v>
+        <v>946.8955572420391</v>
       </c>
       <c r="X46" t="n">
-        <v>800.0821004655886</v>
+        <v>800.0821004655888</v>
       </c>
       <c r="Y46" t="n">
-        <v>660.4656154436257</v>
+        <v>660.4656154436259</v>
       </c>
     </row>
   </sheetData>
@@ -8690,25 +8690,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>246.8038268100235</v>
       </c>
       <c r="L11" t="n">
-        <v>184.9542567930234</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>402.5571885181426</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>393.8523528674106</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8769,13 +8769,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>125.3660379646611</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>423.8184615533935</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,10 +8784,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>230.0876327870544</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.0537916308298</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>402.5571885181424</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>393.8523528674104</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>184.9542567930242</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>43.76436205276622</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>414.7635864709615</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>403.2116123608385</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.97808868793167</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,16 +9161,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>184.9542567930241</v>
       </c>
       <c r="M17" t="n">
-        <v>402.5571885181423</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9182,10 +9182,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>185.7607319270752</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>43.76436205276622</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,19 +9243,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>128.6720848884033</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>403.2116123608386</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>360.7660548436031</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9398,13 +9398,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9413,16 +9413,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>184.9542567930242</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>111.6552328035037</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>43.76436205276622</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9495,10 +9495,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>53.2725342516114</v>
       </c>
       <c r="Q21" t="n">
-        <v>209.3522903601018</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>428.4312992849743</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>419.7264636342423</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>48.94203034846734</v>
+        <v>309.3573390637264</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>43.7643620527663</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>125.366037964661</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>449.6925723202254</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>207.5195689439648</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9872,22 +9872,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>163.7905619275989</v>
       </c>
       <c r="K26" t="n">
-        <v>250.1260070966018</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9957,16 +9957,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>105.6501109151336</v>
       </c>
       <c r="O27" t="n">
-        <v>128.6720848884036</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>272.6894894860491</v>
+        <v>272.0780649168178</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10124,16 +10124,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>43.76436205276622</v>
+        <v>43.76436205276624</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>70.97808868793184</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10203,13 +10203,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>128.6720848884036</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,16 +10346,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>272.6894894860491</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>16.64600457573991</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10367,10 +10367,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>43.76436205276622</v>
+        <v>43.76436205276624</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,16 +10583,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>153.8903008054324</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>228.9609952356439</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10604,10 +10604,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>43.76436205276622</v>
+        <v>43.76436205276624</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,25 +10662,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>16.86400892456686</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>447.1348535283408</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10835,16 +10835,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>343.6418090758889</v>
       </c>
       <c r="P38" t="n">
-        <v>270.3427850863666</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>43.76436205276622</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>209.3522903601019</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>53.27253425161109</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,10 +10917,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>58.02779442646353</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11075,13 +11075,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>270.3427850863681</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>43.76436205276622</v>
+        <v>43.76436205276624</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,16 +11142,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>105.6501109151334</v>
       </c>
       <c r="O42" t="n">
-        <v>128.6720848884036</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11294,16 +11294,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>272.68948948605</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>16.64600457574082</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11315,10 +11315,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>43.76436205276622</v>
+        <v>43.76436205276624</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,22 +11379,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>79.6990015503539</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>30.50131951812048</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,16 +23258,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>301.0107215343887</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>290.4208713840641</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>67.8878891222531</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>7.933171822803145</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.42729154253641</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>263.4900882335161</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>284.9787984807942</v>
       </c>
       <c r="X11" t="n">
-        <v>305.4689304418503</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>321.9757684194348</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>115.5698099453185</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>102.984650862009</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>84.35330278159356</v>
+        <v>79.45582579901777</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.17179240995036</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>80.98068272001899</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>222.2608280999722</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,16 +23495,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>301.0107215343888</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>317.668199835643</v>
       </c>
       <c r="F14" t="n">
-        <v>187.1945516891244</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>40.76113535209359</v>
+        <v>40.76113535209355</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.42729154253642</v>
       </c>
       <c r="T14" t="n">
-        <v>146.8599114426838</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>263.4900882335161</v>
       </c>
       <c r="W14" t="n">
-        <v>284.9787984807942</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>305.4689304418503</v>
+        <v>305.4689304418502</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>256.4584035352952</v>
       </c>
     </row>
     <row r="15">
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>115.5698099453186</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>102.9846508620091</v>
+        <v>29.12921988725183</v>
       </c>
       <c r="D16" t="n">
-        <v>26.9621348422294</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>81.15887778631243</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>54.29025295233658</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.86261053062141</v>
       </c>
       <c r="S16" t="n">
-        <v>138.3718506593842</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>161.4474851524183</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>100.4122490639218</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>100.4122490639225</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>100.4122490639218</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>2.062958362185029</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>98.34929070173679</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1043693.412933133</v>
+        <v>1043693.412933134</v>
       </c>
     </row>
     <row r="7">
@@ -26317,43 +26317,43 @@
         <v>307228.6270188894</v>
       </c>
       <c r="D2" t="n">
-        <v>307228.6270188892</v>
+        <v>307228.6270188895</v>
       </c>
       <c r="E2" t="n">
+        <v>266637.3873214389</v>
+      </c>
+      <c r="F2" t="n">
         <v>266637.3873214388</v>
-      </c>
-      <c r="F2" t="n">
-        <v>266637.3873214389</v>
       </c>
       <c r="G2" t="n">
         <v>304893.3580645483</v>
       </c>
       <c r="H2" t="n">
-        <v>304893.3580645482</v>
+        <v>304893.3580645483</v>
       </c>
       <c r="I2" t="n">
         <v>307890.6636991064</v>
       </c>
       <c r="J2" t="n">
-        <v>307890.6636991056</v>
+        <v>307890.6636991057</v>
       </c>
       <c r="K2" t="n">
-        <v>307890.6636991056</v>
+        <v>307890.6636991058</v>
       </c>
       <c r="L2" t="n">
         <v>307890.6636991058</v>
       </c>
       <c r="M2" t="n">
-        <v>307890.6636991054</v>
+        <v>307890.6636991058</v>
       </c>
       <c r="N2" t="n">
+        <v>307890.6636991055</v>
+      </c>
+      <c r="O2" t="n">
+        <v>307890.6636991055</v>
+      </c>
+      <c r="P2" t="n">
         <v>307890.6636991057</v>
-      </c>
-      <c r="O2" t="n">
-        <v>307890.6636991057</v>
-      </c>
-      <c r="P2" t="n">
-        <v>307890.6636991053</v>
       </c>
     </row>
     <row r="3">
@@ -26372,19 +26372,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>792873.2514315096</v>
+        <v>792873.2514315094</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>64291.46654428116</v>
+        <v>64291.4665442811</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6880.469409226737</v>
+        <v>6880.469409226706</v>
       </c>
       <c r="J3" t="n">
         <v>62318.39567828071</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26424,16 +26424,16 @@
         <v>420147.7688895313</v>
       </c>
       <c r="E4" t="n">
-        <v>131476.982197976</v>
+        <v>131476.9821979761</v>
       </c>
       <c r="F4" t="n">
-        <v>131476.982197976</v>
+        <v>131476.9821979761</v>
       </c>
       <c r="G4" t="n">
-        <v>189547.7028295032</v>
+        <v>189547.7028295033</v>
       </c>
       <c r="H4" t="n">
-        <v>189547.7028295032</v>
+        <v>189547.7028295033</v>
       </c>
       <c r="I4" t="n">
         <v>192414.2210230132</v>
@@ -26448,16 +26448,16 @@
         <v>177002.7601002274</v>
       </c>
       <c r="M4" t="n">
-        <v>177002.7601002274</v>
+        <v>177002.7601002275</v>
       </c>
       <c r="N4" t="n">
-        <v>177002.7601002274</v>
+        <v>177002.7601002275</v>
       </c>
       <c r="O4" t="n">
         <v>177002.7601002274</v>
       </c>
       <c r="P4" t="n">
-        <v>177002.7601002274</v>
+        <v>177002.7601002275</v>
       </c>
     </row>
     <row r="5">
@@ -26491,19 +26491,19 @@
         <v>68236.91724650885</v>
       </c>
       <c r="J5" t="n">
-        <v>77315.81130726748</v>
+        <v>77315.81130726746</v>
       </c>
       <c r="K5" t="n">
-        <v>77315.81130726745</v>
+        <v>77315.81130726746</v>
       </c>
       <c r="L5" t="n">
         <v>77315.81130726745</v>
       </c>
       <c r="M5" t="n">
-        <v>77315.81130726746</v>
+        <v>77315.81130726748</v>
       </c>
       <c r="N5" t="n">
-        <v>77315.81130726745</v>
+        <v>77315.81130726749</v>
       </c>
       <c r="O5" t="n">
         <v>77315.81130726746</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-146546.7418706418</v>
+        <v>-146551.1554485099</v>
       </c>
       <c r="C6" t="n">
-        <v>-146546.7418706419</v>
+        <v>-146551.15544851</v>
       </c>
       <c r="D6" t="n">
-        <v>-146546.741870642</v>
+        <v>-146551.1554485099</v>
       </c>
       <c r="E6" t="n">
-        <v>-717620.4684937933</v>
+        <v>-717895.4903363109</v>
       </c>
       <c r="F6" t="n">
-        <v>75252.78293771652</v>
+        <v>74977.76109519838</v>
       </c>
       <c r="G6" t="n">
-        <v>-15609.58262112158</v>
+        <v>-15629.56465868524</v>
       </c>
       <c r="H6" t="n">
-        <v>48681.88392315953</v>
+        <v>48661.90188559581</v>
       </c>
       <c r="I6" t="n">
         <v>40359.05602035762</v>
       </c>
       <c r="J6" t="n">
-        <v>-8746.303386669999</v>
+        <v>-8746.303386669868</v>
       </c>
       <c r="K6" t="n">
-        <v>53572.09229161085</v>
+        <v>53572.09229161098</v>
       </c>
       <c r="L6" t="n">
-        <v>-10719.37425267014</v>
+        <v>-10719.37425267017</v>
       </c>
       <c r="M6" t="n">
-        <v>-109034.8599027873</v>
+        <v>-109034.8599027871</v>
       </c>
       <c r="N6" t="n">
-        <v>53572.09229161085</v>
+        <v>53572.09229161052</v>
       </c>
       <c r="O6" t="n">
-        <v>53572.09229161084</v>
+        <v>53572.09229161061</v>
       </c>
       <c r="P6" t="n">
-        <v>53572.0922916104</v>
+        <v>53572.09229161075</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>64.2621702366188</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="F2" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="G2" t="n">
         <v>144.6265034169702</v>
@@ -26707,25 +26707,25 @@
         <v>144.6265034169702</v>
       </c>
       <c r="J2" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="K2" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="L2" t="n">
         <v>80.36433318035139</v>
       </c>
       <c r="M2" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="N2" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="O2" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="P2" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035142</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>680.4054280642312</v>
+        <v>680.4054280642309</v>
       </c>
       <c r="F3" t="n">
-        <v>680.4054280642312</v>
+        <v>680.4054280642309</v>
       </c>
       <c r="G3" t="n">
-        <v>680.4054280642312</v>
+        <v>680.4054280642309</v>
       </c>
       <c r="H3" t="n">
-        <v>680.4054280642312</v>
+        <v>680.4054280642309</v>
       </c>
       <c r="I3" t="n">
-        <v>680.4054280642312</v>
+        <v>680.4054280642309</v>
       </c>
       <c r="J3" t="n">
-        <v>680.4054280642312</v>
+        <v>680.4054280642309</v>
       </c>
       <c r="K3" t="n">
-        <v>680.4054280642312</v>
+        <v>680.405428064231</v>
       </c>
       <c r="L3" t="n">
-        <v>680.4054280642312</v>
+        <v>680.405428064231</v>
       </c>
       <c r="M3" t="n">
-        <v>680.4054280642312</v>
+        <v>680.405428064231</v>
       </c>
       <c r="N3" t="n">
-        <v>680.4054280642312</v>
+        <v>680.405428064231</v>
       </c>
       <c r="O3" t="n">
-        <v>680.4054280642312</v>
+        <v>680.405428064231</v>
       </c>
       <c r="P3" t="n">
-        <v>680.4054280642312</v>
+        <v>680.405428064231</v>
       </c>
     </row>
     <row r="4">
@@ -26802,10 +26802,10 @@
         <v>652.505385926381</v>
       </c>
       <c r="G4" t="n">
-        <v>652.5053859263809</v>
+        <v>652.505385926381</v>
       </c>
       <c r="H4" t="n">
-        <v>652.5053859263809</v>
+        <v>652.505385926381</v>
       </c>
       <c r="I4" t="n">
         <v>678.3794966932129</v>
@@ -26814,22 +26814,22 @@
         <v>916.5596027850045</v>
       </c>
       <c r="K4" t="n">
-        <v>916.559602785004</v>
+        <v>916.5596027850044</v>
       </c>
       <c r="L4" t="n">
-        <v>916.559602785004</v>
+        <v>916.5596027850041</v>
       </c>
       <c r="M4" t="n">
-        <v>916.5596027850042</v>
+        <v>916.5596027850045</v>
       </c>
       <c r="N4" t="n">
-        <v>916.559602785004</v>
+        <v>916.5596027850047</v>
       </c>
       <c r="O4" t="n">
-        <v>916.5596027850042</v>
+        <v>916.5596027850044</v>
       </c>
       <c r="P4" t="n">
-        <v>916.5596027850042</v>
+        <v>916.5596027850044</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>64.2621702366188</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>680.4054280642312</v>
+        <v>680.4054280642309</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>25.87411076683202</v>
+        <v>25.8741107668319</v>
       </c>
       <c r="J4" t="n">
         <v>238.1801060917916</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>652.5053859263812</v>
+        <v>652.5053859263813</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>64.2621702366188</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>64.2621702366188</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="C11" t="n">
-        <v>64.2621702366188</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="D11" t="n">
-        <v>64.2621702366188</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="E11" t="n">
-        <v>64.2621702366188</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="F11" t="n">
-        <v>64.2621702366188</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="G11" t="n">
-        <v>64.2621702366188</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="H11" t="n">
-        <v>64.2621702366188</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="I11" t="n">
-        <v>64.2621702366188</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>64.2621702366188</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="T11" t="n">
-        <v>64.2621702366188</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="U11" t="n">
-        <v>64.2621702366188</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="V11" t="n">
-        <v>64.2621702366188</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="W11" t="n">
-        <v>64.2621702366188</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="X11" t="n">
-        <v>64.2621702366188</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="Y11" t="n">
-        <v>64.2621702366188</v>
+        <v>64.26217023661881</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>64.2621702366188</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="C13" t="n">
-        <v>64.2621702366188</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="D13" t="n">
-        <v>64.2621702366188</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="E13" t="n">
-        <v>64.2621702366188</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="F13" t="n">
-        <v>64.2621702366188</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="G13" t="n">
-        <v>64.2621702366188</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="H13" t="n">
-        <v>64.2621702366188</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="I13" t="n">
-        <v>64.2621702366188</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="J13" t="n">
-        <v>64.2621702366188</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="K13" t="n">
-        <v>64.2621702366188</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="L13" t="n">
-        <v>64.2621702366188</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="M13" t="n">
-        <v>64.2621702366188</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="N13" t="n">
-        <v>64.2621702366188</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="O13" t="n">
-        <v>64.2621702366188</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="P13" t="n">
-        <v>64.2621702366188</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.2621702366188</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="R13" t="n">
-        <v>64.2621702366188</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="S13" t="n">
-        <v>64.2621702366188</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="T13" t="n">
-        <v>64.2621702366188</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="U13" t="n">
-        <v>64.2621702366188</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="V13" t="n">
-        <v>64.2621702366188</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="W13" t="n">
-        <v>64.2621702366188</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="X13" t="n">
-        <v>64.2621702366188</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="Y13" t="n">
-        <v>64.2621702366188</v>
+        <v>64.26217023661881</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="C14" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="D14" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="E14" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="F14" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="G14" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="H14" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="I14" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="T14" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="U14" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="V14" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="W14" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="X14" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="Y14" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661881</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="C16" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="D16" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="E16" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="F16" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="G16" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="H16" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="I16" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="J16" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="K16" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="L16" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="M16" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="N16" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="O16" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="P16" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="R16" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="S16" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="T16" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="U16" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="V16" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="W16" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="X16" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661881</v>
       </c>
       <c r="Y16" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661881</v>
       </c>
     </row>
     <row r="17">
@@ -28582,7 +28582,7 @@
         <v>144.6265034169702</v>
       </c>
       <c r="I17" t="n">
-        <v>105.0233055887123</v>
+        <v>105.0233055887124</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28722,10 +28722,10 @@
         <v>144.6265034169702</v>
       </c>
       <c r="C19" t="n">
-        <v>55.3980651574979</v>
+        <v>144.6265034169702</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>144.6265034169702</v>
       </c>
       <c r="E19" t="n">
         <v>144.6265034169702</v>
@@ -28743,7 +28743,7 @@
         <v>118.5524231889554</v>
       </c>
       <c r="J19" t="n">
-        <v>6.613065132155967</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>62.0111302896544</v>
       </c>
       <c r="S19" t="n">
         <v>144.6265034169702</v>
@@ -28776,10 +28776,10 @@
         <v>144.6265034169702</v>
       </c>
       <c r="U19" t="n">
-        <v>144.6265034169702</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>144.6265034169702</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>144.6265034169702</v>
@@ -28819,7 +28819,7 @@
         <v>144.6265034169702</v>
       </c>
       <c r="I20" t="n">
-        <v>105.0233055887123</v>
+        <v>105.0233055887124</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28968,7 +28968,7 @@
         <v>144.6265034169702</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>144.6265034169702</v>
       </c>
       <c r="G22" t="n">
         <v>144.6265034169702</v>
@@ -28980,7 +28980,7 @@
         <v>118.5524231889554</v>
       </c>
       <c r="J22" t="n">
-        <v>6.613065132155967</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29013,19 +29013,19 @@
         <v>144.6265034169702</v>
       </c>
       <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>144.6265034169702</v>
       </c>
-      <c r="V22" t="n">
-        <v>77.89978780722802</v>
-      </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>144.6265034169702</v>
       </c>
       <c r="X22" t="n">
-        <v>144.6265034169702</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6265034169702</v>
+        <v>84.51285293938446</v>
       </c>
     </row>
     <row r="23">
@@ -29056,7 +29056,7 @@
         <v>144.6265034169702</v>
       </c>
       <c r="I23" t="n">
-        <v>105.0233055887123</v>
+        <v>105.0233055887124</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>144.6265034169702</v>
       </c>
       <c r="C25" t="n">
         <v>144.6265034169702</v>
@@ -29214,10 +29214,10 @@
         <v>144.6265034169702</v>
       </c>
       <c r="I25" t="n">
-        <v>118.5524231889554</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>6.613065132155967</v>
+        <v>6.613065132156009</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29244,7 +29244,7 @@
         <v>122.1247807672402</v>
       </c>
       <c r="S25" t="n">
-        <v>144.6265034169702</v>
+        <v>51.8257075792136</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -29262,7 +29262,7 @@
         <v>144.6265034169702</v>
       </c>
       <c r="Y25" t="n">
-        <v>77.89978780722797</v>
+        <v>144.6265034169702</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="C26" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="D26" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="E26" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="F26" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="G26" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="H26" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="I26" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="T26" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="U26" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="V26" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="W26" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="X26" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="Y26" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="C28" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="D28" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="E28" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="F28" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="G28" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="H28" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="I28" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="J28" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="K28" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="L28" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="M28" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="N28" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="O28" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="P28" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="Q28" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="R28" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="S28" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="T28" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="U28" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="V28" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="W28" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="X28" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="Y28" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035139</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="C29" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="D29" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="E29" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="F29" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="G29" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="H29" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="I29" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="T29" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="U29" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="V29" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="W29" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="X29" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="Y29" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035139</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="C31" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="D31" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="E31" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="F31" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="G31" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="H31" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="I31" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="J31" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="K31" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="L31" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="M31" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="N31" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="O31" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="P31" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="Q31" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="R31" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="S31" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="T31" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="U31" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="V31" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="W31" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="X31" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="Y31" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035139</v>
       </c>
     </row>
     <row r="32">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="C35" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="D35" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="E35" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="F35" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="G35" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="H35" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="I35" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="T35" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="U35" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="V35" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="W35" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="X35" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="Y35" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="C37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="D37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="E37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="F37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="G37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="H37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="I37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="J37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="K37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="L37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="M37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="N37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="O37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="P37" t="n">
-        <v>80.36433318035122</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="Q37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="R37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="S37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="T37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="U37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="V37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="W37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="X37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="Y37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="C38" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="D38" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="E38" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="F38" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="G38" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="H38" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="I38" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="T38" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="U38" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="V38" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="W38" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="X38" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="Y38" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="C40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="D40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="E40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="F40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="G40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="H40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="I40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="J40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="K40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035105</v>
       </c>
       <c r="L40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="M40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="N40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="O40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="P40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="Q40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="R40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="S40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="T40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="U40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="V40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="W40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="X40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="Y40" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035142</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="C41" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="D41" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="E41" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="F41" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="G41" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="H41" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="I41" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="T41" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="U41" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="V41" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="W41" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="X41" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="Y41" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="C43" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="D43" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="E43" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="F43" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="G43" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="H43" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="I43" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="J43" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="K43" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="L43" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="M43" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="N43" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="O43" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035077</v>
       </c>
       <c r="P43" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="Q43" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="R43" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="S43" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="T43" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="U43" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="V43" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="W43" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="X43" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="Y43" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="C44" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="D44" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="E44" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="F44" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="G44" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="H44" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="I44" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="T44" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="U44" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="V44" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="W44" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="X44" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="Y44" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035142</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="C46" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="D46" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="E46" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="F46" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="G46" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="H46" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="I46" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="J46" t="n">
-        <v>80.3643331803504</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="K46" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="L46" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="M46" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035091</v>
       </c>
       <c r="N46" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="O46" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="P46" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="Q46" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="R46" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="S46" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="T46" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="U46" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="V46" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="W46" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="X46" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="Y46" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035142</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.735298203273289</v>
+        <v>2.735298203273288</v>
       </c>
       <c r="H11" t="n">
-        <v>28.01287272427258</v>
+        <v>28.01287272427257</v>
       </c>
       <c r="I11" t="n">
-        <v>105.4525839816936</v>
+        <v>105.4525839816935</v>
       </c>
       <c r="J11" t="n">
         <v>232.1550158800665</v>
       </c>
       <c r="K11" t="n">
-        <v>347.9401888246249</v>
+        <v>347.9401888246248</v>
       </c>
       <c r="L11" t="n">
-        <v>431.6505712130499</v>
+        <v>431.6505712130498</v>
       </c>
       <c r="M11" t="n">
-        <v>480.2944306355113</v>
+        <v>480.2944306355111</v>
       </c>
       <c r="N11" t="n">
-        <v>488.0660966555615</v>
+        <v>488.0660966555614</v>
       </c>
       <c r="O11" t="n">
-        <v>460.8669751467627</v>
+        <v>460.8669751467626</v>
       </c>
       <c r="P11" t="n">
-        <v>393.3393007534534</v>
+        <v>393.3393007534532</v>
       </c>
       <c r="Q11" t="n">
-        <v>295.3814338487286</v>
+        <v>295.3814338487285</v>
       </c>
       <c r="R11" t="n">
-        <v>171.8211757613659</v>
+        <v>171.8211757613658</v>
       </c>
       <c r="S11" t="n">
-        <v>62.33060780709014</v>
+        <v>62.33060780709012</v>
       </c>
       <c r="T11" t="n">
-        <v>11.97376788482883</v>
+        <v>11.97376788482882</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2188238562618631</v>
+        <v>0.218823856261863</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,43 +31835,43 @@
         <v>14.1344599301645</v>
       </c>
       <c r="I12" t="n">
-        <v>50.3885151915492</v>
+        <v>50.38851519154918</v>
       </c>
       <c r="J12" t="n">
         <v>138.2699370370906</v>
       </c>
       <c r="K12" t="n">
-        <v>236.3253457079321</v>
+        <v>236.325345707932</v>
       </c>
       <c r="L12" t="n">
-        <v>317.768591663394</v>
+        <v>317.7685916633939</v>
       </c>
       <c r="M12" t="n">
-        <v>370.8209582950059</v>
+        <v>370.8209582950058</v>
       </c>
       <c r="N12" t="n">
-        <v>380.6354856488759</v>
+        <v>380.6354856488758</v>
       </c>
       <c r="O12" t="n">
-        <v>348.2071061905693</v>
+        <v>348.2071061905692</v>
       </c>
       <c r="P12" t="n">
-        <v>279.466901198684</v>
+        <v>279.4669011986838</v>
       </c>
       <c r="Q12" t="n">
         <v>186.8162224375602</v>
       </c>
       <c r="R12" t="n">
-        <v>90.8662192422383</v>
+        <v>90.86621924223827</v>
       </c>
       <c r="S12" t="n">
-        <v>27.18412252690582</v>
+        <v>27.18412252690581</v>
       </c>
       <c r="T12" t="n">
-        <v>5.898986682934228</v>
+        <v>5.898986682934226</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09628378699022143</v>
+        <v>0.0962837869902214</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,28 +31911,28 @@
         <v>1.226960607984679</v>
       </c>
       <c r="H13" t="n">
-        <v>10.90879522371834</v>
+        <v>10.90879522371833</v>
       </c>
       <c r="I13" t="n">
-        <v>36.8980517383029</v>
+        <v>36.89805173830289</v>
       </c>
       <c r="J13" t="n">
-        <v>86.74611498451681</v>
+        <v>86.74611498451677</v>
       </c>
       <c r="K13" t="n">
         <v>142.550514273129</v>
       </c>
       <c r="L13" t="n">
-        <v>182.4155798452859</v>
+        <v>182.4155798452858</v>
       </c>
       <c r="M13" t="n">
-        <v>192.3316523952711</v>
+        <v>192.331652395271</v>
       </c>
       <c r="N13" t="n">
-        <v>187.758435583692</v>
+        <v>187.7584355836919</v>
       </c>
       <c r="O13" t="n">
-        <v>173.4253048449618</v>
+        <v>173.4253048449617</v>
       </c>
       <c r="P13" t="n">
         <v>148.3953084420742</v>
@@ -31941,16 +31941,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R13" t="n">
-        <v>55.16861060992928</v>
+        <v>55.16861060992926</v>
       </c>
       <c r="S13" t="n">
         <v>21.38257714096935</v>
       </c>
       <c r="T13" t="n">
-        <v>5.242468052298173</v>
+        <v>5.242468052298171</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06692512407189166</v>
+        <v>0.06692512407189163</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.735298203273289</v>
+        <v>2.735298203273288</v>
       </c>
       <c r="H14" t="n">
-        <v>28.01287272427258</v>
+        <v>28.01287272427257</v>
       </c>
       <c r="I14" t="n">
-        <v>105.4525839816936</v>
+        <v>105.4525839816935</v>
       </c>
       <c r="J14" t="n">
         <v>232.1550158800665</v>
       </c>
       <c r="K14" t="n">
-        <v>347.9401888246249</v>
+        <v>347.9401888246248</v>
       </c>
       <c r="L14" t="n">
-        <v>431.6505712130499</v>
+        <v>431.6505712130498</v>
       </c>
       <c r="M14" t="n">
-        <v>480.2944306355113</v>
+        <v>480.2944306355111</v>
       </c>
       <c r="N14" t="n">
-        <v>488.0660966555615</v>
+        <v>488.0660966555614</v>
       </c>
       <c r="O14" t="n">
-        <v>460.8669751467627</v>
+        <v>460.8669751467626</v>
       </c>
       <c r="P14" t="n">
-        <v>393.3393007534534</v>
+        <v>393.3393007534532</v>
       </c>
       <c r="Q14" t="n">
-        <v>295.3814338487286</v>
+        <v>295.3814338487285</v>
       </c>
       <c r="R14" t="n">
-        <v>171.8211757613659</v>
+        <v>171.8211757613658</v>
       </c>
       <c r="S14" t="n">
-        <v>62.33060780709014</v>
+        <v>62.33060780709012</v>
       </c>
       <c r="T14" t="n">
-        <v>11.97376788482883</v>
+        <v>11.97376788482882</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2188238562618631</v>
+        <v>0.218823856261863</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,43 +32072,43 @@
         <v>14.1344599301645</v>
       </c>
       <c r="I15" t="n">
-        <v>50.3885151915492</v>
+        <v>50.38851519154918</v>
       </c>
       <c r="J15" t="n">
         <v>138.2699370370906</v>
       </c>
       <c r="K15" t="n">
-        <v>236.3253457079321</v>
+        <v>236.325345707932</v>
       </c>
       <c r="L15" t="n">
-        <v>317.768591663394</v>
+        <v>317.7685916633939</v>
       </c>
       <c r="M15" t="n">
-        <v>370.8209582950059</v>
+        <v>370.8209582950058</v>
       </c>
       <c r="N15" t="n">
-        <v>380.6354856488759</v>
+        <v>380.6354856488758</v>
       </c>
       <c r="O15" t="n">
-        <v>348.2071061905693</v>
+        <v>348.2071061905692</v>
       </c>
       <c r="P15" t="n">
-        <v>279.466901198684</v>
+        <v>279.4669011986838</v>
       </c>
       <c r="Q15" t="n">
         <v>186.8162224375602</v>
       </c>
       <c r="R15" t="n">
-        <v>90.8662192422383</v>
+        <v>90.86621924223827</v>
       </c>
       <c r="S15" t="n">
-        <v>27.18412252690582</v>
+        <v>27.18412252690581</v>
       </c>
       <c r="T15" t="n">
-        <v>5.898986682934228</v>
+        <v>5.898986682934226</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09628378699022143</v>
+        <v>0.0962837869902214</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,28 +32148,28 @@
         <v>1.226960607984679</v>
       </c>
       <c r="H16" t="n">
-        <v>10.90879522371834</v>
+        <v>10.90879522371833</v>
       </c>
       <c r="I16" t="n">
-        <v>36.8980517383029</v>
+        <v>36.89805173830289</v>
       </c>
       <c r="J16" t="n">
-        <v>86.74611498451681</v>
+        <v>86.74611498451677</v>
       </c>
       <c r="K16" t="n">
         <v>142.550514273129</v>
       </c>
       <c r="L16" t="n">
-        <v>182.4155798452859</v>
+        <v>182.4155798452858</v>
       </c>
       <c r="M16" t="n">
-        <v>192.3316523952711</v>
+        <v>192.331652395271</v>
       </c>
       <c r="N16" t="n">
-        <v>187.758435583692</v>
+        <v>187.7584355836919</v>
       </c>
       <c r="O16" t="n">
-        <v>173.4253048449618</v>
+        <v>173.4253048449617</v>
       </c>
       <c r="P16" t="n">
         <v>148.3953084420742</v>
@@ -32178,16 +32178,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R16" t="n">
-        <v>55.16861060992928</v>
+        <v>55.16861060992926</v>
       </c>
       <c r="S16" t="n">
         <v>21.38257714096935</v>
       </c>
       <c r="T16" t="n">
-        <v>5.242468052298173</v>
+        <v>5.242468052298171</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06692512407189166</v>
+        <v>0.06692512407189163</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.735298203273289</v>
+        <v>2.735298203273288</v>
       </c>
       <c r="H17" t="n">
-        <v>28.01287272427258</v>
+        <v>28.01287272427257</v>
       </c>
       <c r="I17" t="n">
-        <v>105.4525839816936</v>
+        <v>105.4525839816935</v>
       </c>
       <c r="J17" t="n">
         <v>232.1550158800665</v>
       </c>
       <c r="K17" t="n">
-        <v>347.9401888246249</v>
+        <v>347.9401888246248</v>
       </c>
       <c r="L17" t="n">
-        <v>431.6505712130499</v>
+        <v>431.6505712130498</v>
       </c>
       <c r="M17" t="n">
-        <v>480.2944306355113</v>
+        <v>480.2944306355111</v>
       </c>
       <c r="N17" t="n">
-        <v>488.0660966555615</v>
+        <v>488.0660966555614</v>
       </c>
       <c r="O17" t="n">
-        <v>460.8669751467627</v>
+        <v>460.8669751467626</v>
       </c>
       <c r="P17" t="n">
-        <v>393.3393007534534</v>
+        <v>393.3393007534532</v>
       </c>
       <c r="Q17" t="n">
-        <v>295.3814338487286</v>
+        <v>295.3814338487285</v>
       </c>
       <c r="R17" t="n">
-        <v>171.8211757613659</v>
+        <v>171.8211757613658</v>
       </c>
       <c r="S17" t="n">
-        <v>62.33060780709014</v>
+        <v>62.33060780709012</v>
       </c>
       <c r="T17" t="n">
-        <v>11.97376788482883</v>
+        <v>11.97376788482882</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2188238562618631</v>
+        <v>0.218823856261863</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,43 +32309,43 @@
         <v>14.1344599301645</v>
       </c>
       <c r="I18" t="n">
-        <v>50.3885151915492</v>
+        <v>50.38851519154918</v>
       </c>
       <c r="J18" t="n">
         <v>138.2699370370906</v>
       </c>
       <c r="K18" t="n">
-        <v>236.3253457079321</v>
+        <v>236.325345707932</v>
       </c>
       <c r="L18" t="n">
-        <v>317.768591663394</v>
+        <v>317.7685916633939</v>
       </c>
       <c r="M18" t="n">
-        <v>370.8209582950059</v>
+        <v>370.8209582950058</v>
       </c>
       <c r="N18" t="n">
-        <v>380.6354856488759</v>
+        <v>380.6354856488758</v>
       </c>
       <c r="O18" t="n">
-        <v>348.2071061905693</v>
+        <v>348.2071061905692</v>
       </c>
       <c r="P18" t="n">
-        <v>279.466901198684</v>
+        <v>279.4669011986838</v>
       </c>
       <c r="Q18" t="n">
         <v>186.8162224375602</v>
       </c>
       <c r="R18" t="n">
-        <v>90.8662192422383</v>
+        <v>90.86621924223827</v>
       </c>
       <c r="S18" t="n">
-        <v>27.18412252690582</v>
+        <v>27.18412252690581</v>
       </c>
       <c r="T18" t="n">
-        <v>5.898986682934228</v>
+        <v>5.898986682934226</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09628378699022143</v>
+        <v>0.0962837869902214</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,28 +32385,28 @@
         <v>1.226960607984679</v>
       </c>
       <c r="H19" t="n">
-        <v>10.90879522371834</v>
+        <v>10.90879522371833</v>
       </c>
       <c r="I19" t="n">
-        <v>36.8980517383029</v>
+        <v>36.89805173830289</v>
       </c>
       <c r="J19" t="n">
-        <v>86.74611498451681</v>
+        <v>86.74611498451677</v>
       </c>
       <c r="K19" t="n">
         <v>142.550514273129</v>
       </c>
       <c r="L19" t="n">
-        <v>182.4155798452859</v>
+        <v>182.4155798452858</v>
       </c>
       <c r="M19" t="n">
-        <v>192.3316523952711</v>
+        <v>192.331652395271</v>
       </c>
       <c r="N19" t="n">
-        <v>187.758435583692</v>
+        <v>187.7584355836919</v>
       </c>
       <c r="O19" t="n">
-        <v>173.4253048449618</v>
+        <v>173.4253048449617</v>
       </c>
       <c r="P19" t="n">
         <v>148.3953084420742</v>
@@ -32415,16 +32415,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R19" t="n">
-        <v>55.16861060992928</v>
+        <v>55.16861060992926</v>
       </c>
       <c r="S19" t="n">
         <v>21.38257714096935</v>
       </c>
       <c r="T19" t="n">
-        <v>5.242468052298173</v>
+        <v>5.242468052298171</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06692512407189166</v>
+        <v>0.06692512407189163</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.735298203273289</v>
+        <v>2.735298203273288</v>
       </c>
       <c r="H20" t="n">
-        <v>28.01287272427258</v>
+        <v>28.01287272427257</v>
       </c>
       <c r="I20" t="n">
-        <v>105.4525839816936</v>
+        <v>105.4525839816935</v>
       </c>
       <c r="J20" t="n">
         <v>232.1550158800665</v>
       </c>
       <c r="K20" t="n">
-        <v>347.9401888246249</v>
+        <v>347.9401888246248</v>
       </c>
       <c r="L20" t="n">
-        <v>431.6505712130499</v>
+        <v>431.6505712130498</v>
       </c>
       <c r="M20" t="n">
-        <v>480.2944306355113</v>
+        <v>480.2944306355111</v>
       </c>
       <c r="N20" t="n">
-        <v>488.0660966555615</v>
+        <v>488.0660966555614</v>
       </c>
       <c r="O20" t="n">
-        <v>460.8669751467627</v>
+        <v>460.8669751467626</v>
       </c>
       <c r="P20" t="n">
-        <v>393.3393007534534</v>
+        <v>393.3393007534532</v>
       </c>
       <c r="Q20" t="n">
-        <v>295.3814338487286</v>
+        <v>295.3814338487285</v>
       </c>
       <c r="R20" t="n">
-        <v>171.8211757613659</v>
+        <v>171.8211757613658</v>
       </c>
       <c r="S20" t="n">
-        <v>62.33060780709014</v>
+        <v>62.33060780709012</v>
       </c>
       <c r="T20" t="n">
-        <v>11.97376788482883</v>
+        <v>11.97376788482882</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2188238562618631</v>
+        <v>0.218823856261863</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,43 +32546,43 @@
         <v>14.1344599301645</v>
       </c>
       <c r="I21" t="n">
-        <v>50.3885151915492</v>
+        <v>50.38851519154918</v>
       </c>
       <c r="J21" t="n">
         <v>138.2699370370906</v>
       </c>
       <c r="K21" t="n">
-        <v>236.3253457079321</v>
+        <v>236.325345707932</v>
       </c>
       <c r="L21" t="n">
-        <v>317.768591663394</v>
+        <v>317.7685916633939</v>
       </c>
       <c r="M21" t="n">
-        <v>370.8209582950059</v>
+        <v>370.8209582950058</v>
       </c>
       <c r="N21" t="n">
-        <v>380.6354856488759</v>
+        <v>380.6354856488758</v>
       </c>
       <c r="O21" t="n">
-        <v>348.2071061905693</v>
+        <v>348.2071061905692</v>
       </c>
       <c r="P21" t="n">
-        <v>279.466901198684</v>
+        <v>279.4669011986838</v>
       </c>
       <c r="Q21" t="n">
         <v>186.8162224375602</v>
       </c>
       <c r="R21" t="n">
-        <v>90.8662192422383</v>
+        <v>90.86621924223827</v>
       </c>
       <c r="S21" t="n">
-        <v>27.18412252690582</v>
+        <v>27.18412252690581</v>
       </c>
       <c r="T21" t="n">
-        <v>5.898986682934228</v>
+        <v>5.898986682934226</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09628378699022143</v>
+        <v>0.0962837869902214</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,28 +32622,28 @@
         <v>1.226960607984679</v>
       </c>
       <c r="H22" t="n">
-        <v>10.90879522371834</v>
+        <v>10.90879522371833</v>
       </c>
       <c r="I22" t="n">
-        <v>36.8980517383029</v>
+        <v>36.89805173830289</v>
       </c>
       <c r="J22" t="n">
-        <v>86.74611498451681</v>
+        <v>86.74611498451677</v>
       </c>
       <c r="K22" t="n">
         <v>142.550514273129</v>
       </c>
       <c r="L22" t="n">
-        <v>182.4155798452859</v>
+        <v>182.4155798452858</v>
       </c>
       <c r="M22" t="n">
-        <v>192.3316523952711</v>
+        <v>192.331652395271</v>
       </c>
       <c r="N22" t="n">
-        <v>187.758435583692</v>
+        <v>187.7584355836919</v>
       </c>
       <c r="O22" t="n">
-        <v>173.4253048449618</v>
+        <v>173.4253048449617</v>
       </c>
       <c r="P22" t="n">
         <v>148.3953084420742</v>
@@ -32652,16 +32652,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R22" t="n">
-        <v>55.16861060992928</v>
+        <v>55.16861060992926</v>
       </c>
       <c r="S22" t="n">
         <v>21.38257714096935</v>
       </c>
       <c r="T22" t="n">
-        <v>5.242468052298173</v>
+        <v>5.242468052298171</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06692512407189166</v>
+        <v>0.06692512407189163</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.735298203273289</v>
+        <v>2.735298203273288</v>
       </c>
       <c r="H23" t="n">
-        <v>28.01287272427258</v>
+        <v>28.01287272427257</v>
       </c>
       <c r="I23" t="n">
-        <v>105.4525839816936</v>
+        <v>105.4525839816935</v>
       </c>
       <c r="J23" t="n">
         <v>232.1550158800665</v>
       </c>
       <c r="K23" t="n">
-        <v>347.9401888246249</v>
+        <v>347.9401888246248</v>
       </c>
       <c r="L23" t="n">
-        <v>431.6505712130499</v>
+        <v>431.6505712130498</v>
       </c>
       <c r="M23" t="n">
-        <v>480.2944306355113</v>
+        <v>480.2944306355111</v>
       </c>
       <c r="N23" t="n">
-        <v>488.0660966555615</v>
+        <v>488.0660966555614</v>
       </c>
       <c r="O23" t="n">
-        <v>460.8669751467627</v>
+        <v>460.8669751467626</v>
       </c>
       <c r="P23" t="n">
-        <v>393.3393007534534</v>
+        <v>393.3393007534532</v>
       </c>
       <c r="Q23" t="n">
-        <v>295.3814338487286</v>
+        <v>295.3814338487285</v>
       </c>
       <c r="R23" t="n">
-        <v>171.8211757613659</v>
+        <v>171.8211757613658</v>
       </c>
       <c r="S23" t="n">
-        <v>62.33060780709014</v>
+        <v>62.33060780709012</v>
       </c>
       <c r="T23" t="n">
-        <v>11.97376788482883</v>
+        <v>11.97376788482882</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2188238562618631</v>
+        <v>0.218823856261863</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,43 +32783,43 @@
         <v>14.1344599301645</v>
       </c>
       <c r="I24" t="n">
-        <v>50.3885151915492</v>
+        <v>50.38851519154918</v>
       </c>
       <c r="J24" t="n">
         <v>138.2699370370906</v>
       </c>
       <c r="K24" t="n">
-        <v>236.3253457079321</v>
+        <v>236.325345707932</v>
       </c>
       <c r="L24" t="n">
-        <v>317.768591663394</v>
+        <v>317.7685916633939</v>
       </c>
       <c r="M24" t="n">
-        <v>370.8209582950059</v>
+        <v>370.8209582950058</v>
       </c>
       <c r="N24" t="n">
-        <v>380.6354856488759</v>
+        <v>380.6354856488758</v>
       </c>
       <c r="O24" t="n">
-        <v>348.2071061905693</v>
+        <v>348.2071061905692</v>
       </c>
       <c r="P24" t="n">
-        <v>279.466901198684</v>
+        <v>279.4669011986838</v>
       </c>
       <c r="Q24" t="n">
         <v>186.8162224375602</v>
       </c>
       <c r="R24" t="n">
-        <v>90.8662192422383</v>
+        <v>90.86621924223827</v>
       </c>
       <c r="S24" t="n">
-        <v>27.18412252690582</v>
+        <v>27.18412252690581</v>
       </c>
       <c r="T24" t="n">
-        <v>5.898986682934228</v>
+        <v>5.898986682934226</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09628378699022143</v>
+        <v>0.0962837869902214</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,28 +32859,28 @@
         <v>1.226960607984679</v>
       </c>
       <c r="H25" t="n">
-        <v>10.90879522371834</v>
+        <v>10.90879522371833</v>
       </c>
       <c r="I25" t="n">
-        <v>36.8980517383029</v>
+        <v>36.89805173830289</v>
       </c>
       <c r="J25" t="n">
-        <v>86.74611498451681</v>
+        <v>86.74611498451677</v>
       </c>
       <c r="K25" t="n">
         <v>142.550514273129</v>
       </c>
       <c r="L25" t="n">
-        <v>182.4155798452859</v>
+        <v>182.4155798452858</v>
       </c>
       <c r="M25" t="n">
-        <v>192.3316523952711</v>
+        <v>192.331652395271</v>
       </c>
       <c r="N25" t="n">
-        <v>187.758435583692</v>
+        <v>187.7584355836919</v>
       </c>
       <c r="O25" t="n">
-        <v>173.4253048449618</v>
+        <v>173.4253048449617</v>
       </c>
       <c r="P25" t="n">
         <v>148.3953084420742</v>
@@ -32889,16 +32889,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R25" t="n">
-        <v>55.16861060992928</v>
+        <v>55.16861060992926</v>
       </c>
       <c r="S25" t="n">
         <v>21.38257714096935</v>
       </c>
       <c r="T25" t="n">
-        <v>5.242468052298173</v>
+        <v>5.242468052298171</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06692512407189166</v>
+        <v>0.06692512407189163</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.735298203273289</v>
+        <v>2.735298203273288</v>
       </c>
       <c r="H26" t="n">
-        <v>28.01287272427258</v>
+        <v>28.01287272427257</v>
       </c>
       <c r="I26" t="n">
-        <v>105.4525839816936</v>
+        <v>105.4525839816935</v>
       </c>
       <c r="J26" t="n">
         <v>232.1550158800665</v>
       </c>
       <c r="K26" t="n">
-        <v>347.9401888246249</v>
+        <v>347.9401888246248</v>
       </c>
       <c r="L26" t="n">
-        <v>431.6505712130499</v>
+        <v>431.6505712130498</v>
       </c>
       <c r="M26" t="n">
-        <v>480.2944306355113</v>
+        <v>480.2944306355111</v>
       </c>
       <c r="N26" t="n">
-        <v>488.0660966555615</v>
+        <v>488.0660966555614</v>
       </c>
       <c r="O26" t="n">
-        <v>460.8669751467627</v>
+        <v>460.8669751467626</v>
       </c>
       <c r="P26" t="n">
-        <v>393.3393007534534</v>
+        <v>393.3393007534532</v>
       </c>
       <c r="Q26" t="n">
-        <v>295.3814338487286</v>
+        <v>295.3814338487285</v>
       </c>
       <c r="R26" t="n">
-        <v>171.8211757613659</v>
+        <v>171.8211757613658</v>
       </c>
       <c r="S26" t="n">
-        <v>62.33060780709014</v>
+        <v>62.33060780709012</v>
       </c>
       <c r="T26" t="n">
-        <v>11.97376788482883</v>
+        <v>11.97376788482882</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2188238562618631</v>
+        <v>0.218823856261863</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,43 +33020,43 @@
         <v>14.1344599301645</v>
       </c>
       <c r="I27" t="n">
-        <v>50.3885151915492</v>
+        <v>50.38851519154918</v>
       </c>
       <c r="J27" t="n">
         <v>138.2699370370906</v>
       </c>
       <c r="K27" t="n">
-        <v>236.3253457079321</v>
+        <v>236.325345707932</v>
       </c>
       <c r="L27" t="n">
-        <v>317.768591663394</v>
+        <v>317.7685916633939</v>
       </c>
       <c r="M27" t="n">
-        <v>370.8209582950059</v>
+        <v>370.8209582950058</v>
       </c>
       <c r="N27" t="n">
-        <v>380.6354856488759</v>
+        <v>380.6354856488758</v>
       </c>
       <c r="O27" t="n">
-        <v>348.2071061905693</v>
+        <v>348.2071061905692</v>
       </c>
       <c r="P27" t="n">
-        <v>279.466901198684</v>
+        <v>279.4669011986838</v>
       </c>
       <c r="Q27" t="n">
         <v>186.8162224375602</v>
       </c>
       <c r="R27" t="n">
-        <v>90.8662192422383</v>
+        <v>90.86621924223827</v>
       </c>
       <c r="S27" t="n">
-        <v>27.18412252690582</v>
+        <v>27.18412252690581</v>
       </c>
       <c r="T27" t="n">
-        <v>5.898986682934228</v>
+        <v>5.898986682934226</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09628378699022143</v>
+        <v>0.0962837869902214</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,28 +33096,28 @@
         <v>1.226960607984679</v>
       </c>
       <c r="H28" t="n">
-        <v>10.90879522371834</v>
+        <v>10.90879522371833</v>
       </c>
       <c r="I28" t="n">
-        <v>36.8980517383029</v>
+        <v>36.89805173830289</v>
       </c>
       <c r="J28" t="n">
-        <v>86.74611498451681</v>
+        <v>86.74611498451677</v>
       </c>
       <c r="K28" t="n">
         <v>142.550514273129</v>
       </c>
       <c r="L28" t="n">
-        <v>182.4155798452859</v>
+        <v>182.4155798452858</v>
       </c>
       <c r="M28" t="n">
-        <v>192.3316523952711</v>
+        <v>192.331652395271</v>
       </c>
       <c r="N28" t="n">
-        <v>187.758435583692</v>
+        <v>187.7584355836919</v>
       </c>
       <c r="O28" t="n">
-        <v>173.4253048449618</v>
+        <v>173.4253048449617</v>
       </c>
       <c r="P28" t="n">
         <v>148.3953084420742</v>
@@ -33126,16 +33126,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R28" t="n">
-        <v>55.16861060992928</v>
+        <v>55.16861060992926</v>
       </c>
       <c r="S28" t="n">
         <v>21.38257714096935</v>
       </c>
       <c r="T28" t="n">
-        <v>5.242468052298173</v>
+        <v>5.242468052298171</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06692512407189166</v>
+        <v>0.06692512407189163</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>2.735298203273289</v>
       </c>
       <c r="H29" t="n">
-        <v>28.01287272427258</v>
+        <v>28.01287272427257</v>
       </c>
       <c r="I29" t="n">
         <v>105.4525839816936</v>
@@ -33184,13 +33184,13 @@
         <v>232.1550158800665</v>
       </c>
       <c r="K29" t="n">
-        <v>347.9401888246249</v>
+        <v>347.9401888246248</v>
       </c>
       <c r="L29" t="n">
-        <v>431.6505712130499</v>
+        <v>431.6505712130498</v>
       </c>
       <c r="M29" t="n">
-        <v>480.2944306355113</v>
+        <v>480.2944306355112</v>
       </c>
       <c r="N29" t="n">
         <v>488.0660966555615</v>
@@ -33199,22 +33199,22 @@
         <v>460.8669751467627</v>
       </c>
       <c r="P29" t="n">
-        <v>393.3393007534534</v>
+        <v>393.3393007534533</v>
       </c>
       <c r="Q29" t="n">
-        <v>295.3814338487286</v>
+        <v>295.3814338487285</v>
       </c>
       <c r="R29" t="n">
         <v>171.8211757613659</v>
       </c>
       <c r="S29" t="n">
-        <v>62.33060780709014</v>
+        <v>62.33060780709013</v>
       </c>
       <c r="T29" t="n">
         <v>11.97376788482883</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2188238562618631</v>
+        <v>0.218823856261863</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33263,7 +33263,7 @@
         <v>138.2699370370906</v>
       </c>
       <c r="K30" t="n">
-        <v>236.3253457079321</v>
+        <v>236.325345707932</v>
       </c>
       <c r="L30" t="n">
         <v>317.768591663394</v>
@@ -33272,28 +33272,28 @@
         <v>370.8209582950059</v>
       </c>
       <c r="N30" t="n">
-        <v>380.6354856488759</v>
+        <v>380.6354856488758</v>
       </c>
       <c r="O30" t="n">
         <v>348.2071061905693</v>
       </c>
       <c r="P30" t="n">
-        <v>279.466901198684</v>
+        <v>279.4669011986839</v>
       </c>
       <c r="Q30" t="n">
         <v>186.8162224375602</v>
       </c>
       <c r="R30" t="n">
-        <v>90.8662192422383</v>
+        <v>90.86621924223829</v>
       </c>
       <c r="S30" t="n">
         <v>27.18412252690582</v>
       </c>
       <c r="T30" t="n">
-        <v>5.898986682934228</v>
+        <v>5.898986682934227</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09628378699022143</v>
+        <v>0.09628378699022141</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,28 +33333,28 @@
         <v>1.226960607984679</v>
       </c>
       <c r="H31" t="n">
-        <v>10.90879522371834</v>
+        <v>10.90879522371833</v>
       </c>
       <c r="I31" t="n">
         <v>36.8980517383029</v>
       </c>
       <c r="J31" t="n">
-        <v>86.74611498451681</v>
+        <v>86.74611498451678</v>
       </c>
       <c r="K31" t="n">
         <v>142.550514273129</v>
       </c>
       <c r="L31" t="n">
-        <v>182.4155798452859</v>
+        <v>182.4155798452858</v>
       </c>
       <c r="M31" t="n">
-        <v>192.3316523952711</v>
+        <v>192.331652395271</v>
       </c>
       <c r="N31" t="n">
-        <v>187.758435583692</v>
+        <v>187.7584355836919</v>
       </c>
       <c r="O31" t="n">
-        <v>173.4253048449618</v>
+        <v>173.4253048449617</v>
       </c>
       <c r="P31" t="n">
         <v>148.3953084420742</v>
@@ -33363,16 +33363,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R31" t="n">
-        <v>55.16861060992928</v>
+        <v>55.16861060992927</v>
       </c>
       <c r="S31" t="n">
         <v>21.38257714096935</v>
       </c>
       <c r="T31" t="n">
-        <v>5.242468052298173</v>
+        <v>5.242468052298172</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06692512407189166</v>
+        <v>0.06692512407189165</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>2.735298203273289</v>
       </c>
       <c r="H32" t="n">
-        <v>28.01287272427258</v>
+        <v>28.01287272427257</v>
       </c>
       <c r="I32" t="n">
         <v>105.4525839816936</v>
@@ -33421,13 +33421,13 @@
         <v>232.1550158800665</v>
       </c>
       <c r="K32" t="n">
-        <v>347.9401888246249</v>
+        <v>347.9401888246248</v>
       </c>
       <c r="L32" t="n">
-        <v>431.6505712130499</v>
+        <v>431.6505712130498</v>
       </c>
       <c r="M32" t="n">
-        <v>480.2944306355113</v>
+        <v>480.2944306355112</v>
       </c>
       <c r="N32" t="n">
         <v>488.0660966555615</v>
@@ -33436,22 +33436,22 @@
         <v>460.8669751467627</v>
       </c>
       <c r="P32" t="n">
-        <v>393.3393007534534</v>
+        <v>393.3393007534533</v>
       </c>
       <c r="Q32" t="n">
-        <v>295.3814338487286</v>
+        <v>295.3814338487285</v>
       </c>
       <c r="R32" t="n">
         <v>171.8211757613659</v>
       </c>
       <c r="S32" t="n">
-        <v>62.33060780709014</v>
+        <v>62.33060780709013</v>
       </c>
       <c r="T32" t="n">
         <v>11.97376788482883</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2188238562618631</v>
+        <v>0.218823856261863</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33500,7 +33500,7 @@
         <v>138.2699370370906</v>
       </c>
       <c r="K33" t="n">
-        <v>236.3253457079321</v>
+        <v>236.325345707932</v>
       </c>
       <c r="L33" t="n">
         <v>317.768591663394</v>
@@ -33509,28 +33509,28 @@
         <v>370.8209582950059</v>
       </c>
       <c r="N33" t="n">
-        <v>380.6354856488759</v>
+        <v>380.6354856488758</v>
       </c>
       <c r="O33" t="n">
         <v>348.2071061905693</v>
       </c>
       <c r="P33" t="n">
-        <v>279.466901198684</v>
+        <v>279.4669011986839</v>
       </c>
       <c r="Q33" t="n">
         <v>186.8162224375602</v>
       </c>
       <c r="R33" t="n">
-        <v>90.8662192422383</v>
+        <v>90.86621924223829</v>
       </c>
       <c r="S33" t="n">
         <v>27.18412252690582</v>
       </c>
       <c r="T33" t="n">
-        <v>5.898986682934228</v>
+        <v>5.898986682934227</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09628378699022143</v>
+        <v>0.09628378699022141</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,28 +33570,28 @@
         <v>1.226960607984679</v>
       </c>
       <c r="H34" t="n">
-        <v>10.90879522371834</v>
+        <v>10.90879522371833</v>
       </c>
       <c r="I34" t="n">
         <v>36.8980517383029</v>
       </c>
       <c r="J34" t="n">
-        <v>86.74611498451681</v>
+        <v>86.74611498451678</v>
       </c>
       <c r="K34" t="n">
         <v>142.550514273129</v>
       </c>
       <c r="L34" t="n">
-        <v>182.4155798452859</v>
+        <v>182.4155798452858</v>
       </c>
       <c r="M34" t="n">
-        <v>192.3316523952711</v>
+        <v>192.331652395271</v>
       </c>
       <c r="N34" t="n">
-        <v>187.758435583692</v>
+        <v>187.7584355836919</v>
       </c>
       <c r="O34" t="n">
-        <v>173.4253048449618</v>
+        <v>173.4253048449617</v>
       </c>
       <c r="P34" t="n">
         <v>148.3953084420742</v>
@@ -33600,16 +33600,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R34" t="n">
-        <v>55.16861060992928</v>
+        <v>55.16861060992927</v>
       </c>
       <c r="S34" t="n">
         <v>21.38257714096935</v>
       </c>
       <c r="T34" t="n">
-        <v>5.242468052298173</v>
+        <v>5.242468052298172</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06692512407189166</v>
+        <v>0.06692512407189165</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>2.735298203273289</v>
       </c>
       <c r="H35" t="n">
-        <v>28.01287272427258</v>
+        <v>28.01287272427257</v>
       </c>
       <c r="I35" t="n">
         <v>105.4525839816936</v>
@@ -33658,13 +33658,13 @@
         <v>232.1550158800665</v>
       </c>
       <c r="K35" t="n">
-        <v>347.9401888246249</v>
+        <v>347.9401888246248</v>
       </c>
       <c r="L35" t="n">
-        <v>431.6505712130499</v>
+        <v>431.6505712130498</v>
       </c>
       <c r="M35" t="n">
-        <v>480.2944306355113</v>
+        <v>480.2944306355112</v>
       </c>
       <c r="N35" t="n">
         <v>488.0660966555615</v>
@@ -33673,22 +33673,22 @@
         <v>460.8669751467627</v>
       </c>
       <c r="P35" t="n">
-        <v>393.3393007534534</v>
+        <v>393.3393007534533</v>
       </c>
       <c r="Q35" t="n">
-        <v>295.3814338487286</v>
+        <v>295.3814338487285</v>
       </c>
       <c r="R35" t="n">
         <v>171.8211757613659</v>
       </c>
       <c r="S35" t="n">
-        <v>62.33060780709014</v>
+        <v>62.33060780709013</v>
       </c>
       <c r="T35" t="n">
         <v>11.97376788482883</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2188238562618631</v>
+        <v>0.218823856261863</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33737,7 +33737,7 @@
         <v>138.2699370370906</v>
       </c>
       <c r="K36" t="n">
-        <v>236.3253457079321</v>
+        <v>236.325345707932</v>
       </c>
       <c r="L36" t="n">
         <v>317.768591663394</v>
@@ -33746,28 +33746,28 @@
         <v>370.8209582950059</v>
       </c>
       <c r="N36" t="n">
-        <v>380.6354856488759</v>
+        <v>380.6354856488758</v>
       </c>
       <c r="O36" t="n">
         <v>348.2071061905693</v>
       </c>
       <c r="P36" t="n">
-        <v>279.466901198684</v>
+        <v>279.4669011986839</v>
       </c>
       <c r="Q36" t="n">
         <v>186.8162224375602</v>
       </c>
       <c r="R36" t="n">
-        <v>90.8662192422383</v>
+        <v>90.86621924223829</v>
       </c>
       <c r="S36" t="n">
         <v>27.18412252690582</v>
       </c>
       <c r="T36" t="n">
-        <v>5.898986682934228</v>
+        <v>5.898986682934227</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09628378699022143</v>
+        <v>0.09628378699022141</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,28 +33807,28 @@
         <v>1.226960607984679</v>
       </c>
       <c r="H37" t="n">
-        <v>10.90879522371834</v>
+        <v>10.90879522371833</v>
       </c>
       <c r="I37" t="n">
         <v>36.8980517383029</v>
       </c>
       <c r="J37" t="n">
-        <v>86.74611498451681</v>
+        <v>86.74611498451678</v>
       </c>
       <c r="K37" t="n">
         <v>142.550514273129</v>
       </c>
       <c r="L37" t="n">
-        <v>182.4155798452859</v>
+        <v>182.4155798452858</v>
       </c>
       <c r="M37" t="n">
-        <v>192.3316523952711</v>
+        <v>192.331652395271</v>
       </c>
       <c r="N37" t="n">
-        <v>187.758435583692</v>
+        <v>187.7584355836919</v>
       </c>
       <c r="O37" t="n">
-        <v>173.4253048449618</v>
+        <v>173.4253048449617</v>
       </c>
       <c r="P37" t="n">
         <v>148.3953084420742</v>
@@ -33837,16 +33837,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R37" t="n">
-        <v>55.16861060992928</v>
+        <v>55.16861060992927</v>
       </c>
       <c r="S37" t="n">
         <v>21.38257714096935</v>
       </c>
       <c r="T37" t="n">
-        <v>5.242468052298173</v>
+        <v>5.242468052298172</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06692512407189166</v>
+        <v>0.06692512407189165</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>2.735298203273289</v>
       </c>
       <c r="H38" t="n">
-        <v>28.01287272427258</v>
+        <v>28.01287272427257</v>
       </c>
       <c r="I38" t="n">
         <v>105.4525839816936</v>
@@ -33895,13 +33895,13 @@
         <v>232.1550158800665</v>
       </c>
       <c r="K38" t="n">
-        <v>347.9401888246249</v>
+        <v>347.9401888246248</v>
       </c>
       <c r="L38" t="n">
-        <v>431.6505712130499</v>
+        <v>431.6505712130498</v>
       </c>
       <c r="M38" t="n">
-        <v>480.2944306355113</v>
+        <v>480.2944306355112</v>
       </c>
       <c r="N38" t="n">
         <v>488.0660966555615</v>
@@ -33910,22 +33910,22 @@
         <v>460.8669751467627</v>
       </c>
       <c r="P38" t="n">
-        <v>393.3393007534534</v>
+        <v>393.3393007534533</v>
       </c>
       <c r="Q38" t="n">
-        <v>295.3814338487286</v>
+        <v>295.3814338487285</v>
       </c>
       <c r="R38" t="n">
         <v>171.8211757613659</v>
       </c>
       <c r="S38" t="n">
-        <v>62.33060780709014</v>
+        <v>62.33060780709013</v>
       </c>
       <c r="T38" t="n">
         <v>11.97376788482883</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2188238562618631</v>
+        <v>0.218823856261863</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33974,7 +33974,7 @@
         <v>138.2699370370906</v>
       </c>
       <c r="K39" t="n">
-        <v>236.3253457079321</v>
+        <v>236.325345707932</v>
       </c>
       <c r="L39" t="n">
         <v>317.768591663394</v>
@@ -33983,28 +33983,28 @@
         <v>370.8209582950059</v>
       </c>
       <c r="N39" t="n">
-        <v>380.6354856488759</v>
+        <v>380.6354856488758</v>
       </c>
       <c r="O39" t="n">
         <v>348.2071061905693</v>
       </c>
       <c r="P39" t="n">
-        <v>279.466901198684</v>
+        <v>279.4669011986839</v>
       </c>
       <c r="Q39" t="n">
         <v>186.8162224375602</v>
       </c>
       <c r="R39" t="n">
-        <v>90.8662192422383</v>
+        <v>90.86621924223829</v>
       </c>
       <c r="S39" t="n">
         <v>27.18412252690582</v>
       </c>
       <c r="T39" t="n">
-        <v>5.898986682934228</v>
+        <v>5.898986682934227</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09628378699022143</v>
+        <v>0.09628378699022141</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,28 +34044,28 @@
         <v>1.226960607984679</v>
       </c>
       <c r="H40" t="n">
-        <v>10.90879522371834</v>
+        <v>10.90879522371833</v>
       </c>
       <c r="I40" t="n">
         <v>36.8980517383029</v>
       </c>
       <c r="J40" t="n">
-        <v>86.74611498451681</v>
+        <v>86.74611498451678</v>
       </c>
       <c r="K40" t="n">
         <v>142.550514273129</v>
       </c>
       <c r="L40" t="n">
-        <v>182.4155798452859</v>
+        <v>182.4155798452858</v>
       </c>
       <c r="M40" t="n">
-        <v>192.3316523952711</v>
+        <v>192.331652395271</v>
       </c>
       <c r="N40" t="n">
-        <v>187.758435583692</v>
+        <v>187.7584355836919</v>
       </c>
       <c r="O40" t="n">
-        <v>173.4253048449618</v>
+        <v>173.4253048449617</v>
       </c>
       <c r="P40" t="n">
         <v>148.3953084420742</v>
@@ -34074,16 +34074,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R40" t="n">
-        <v>55.16861060992928</v>
+        <v>55.16861060992927</v>
       </c>
       <c r="S40" t="n">
         <v>21.38257714096935</v>
       </c>
       <c r="T40" t="n">
-        <v>5.242468052298173</v>
+        <v>5.242468052298172</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06692512407189166</v>
+        <v>0.06692512407189165</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>2.735298203273289</v>
       </c>
       <c r="H41" t="n">
-        <v>28.01287272427258</v>
+        <v>28.01287272427257</v>
       </c>
       <c r="I41" t="n">
         <v>105.4525839816936</v>
@@ -34132,13 +34132,13 @@
         <v>232.1550158800665</v>
       </c>
       <c r="K41" t="n">
-        <v>347.9401888246249</v>
+        <v>347.9401888246248</v>
       </c>
       <c r="L41" t="n">
-        <v>431.6505712130499</v>
+        <v>431.6505712130498</v>
       </c>
       <c r="M41" t="n">
-        <v>480.2944306355113</v>
+        <v>480.2944306355112</v>
       </c>
       <c r="N41" t="n">
         <v>488.0660966555615</v>
@@ -34147,22 +34147,22 @@
         <v>460.8669751467627</v>
       </c>
       <c r="P41" t="n">
-        <v>393.3393007534534</v>
+        <v>393.3393007534533</v>
       </c>
       <c r="Q41" t="n">
-        <v>295.3814338487286</v>
+        <v>295.3814338487285</v>
       </c>
       <c r="R41" t="n">
         <v>171.8211757613659</v>
       </c>
       <c r="S41" t="n">
-        <v>62.33060780709014</v>
+        <v>62.33060780709013</v>
       </c>
       <c r="T41" t="n">
         <v>11.97376788482883</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2188238562618631</v>
+        <v>0.218823856261863</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34211,7 +34211,7 @@
         <v>138.2699370370906</v>
       </c>
       <c r="K42" t="n">
-        <v>236.3253457079321</v>
+        <v>236.325345707932</v>
       </c>
       <c r="L42" t="n">
         <v>317.768591663394</v>
@@ -34220,28 +34220,28 @@
         <v>370.8209582950059</v>
       </c>
       <c r="N42" t="n">
-        <v>380.6354856488759</v>
+        <v>380.6354856488758</v>
       </c>
       <c r="O42" t="n">
         <v>348.2071061905693</v>
       </c>
       <c r="P42" t="n">
-        <v>279.466901198684</v>
+        <v>279.4669011986839</v>
       </c>
       <c r="Q42" t="n">
         <v>186.8162224375602</v>
       </c>
       <c r="R42" t="n">
-        <v>90.8662192422383</v>
+        <v>90.86621924223829</v>
       </c>
       <c r="S42" t="n">
         <v>27.18412252690582</v>
       </c>
       <c r="T42" t="n">
-        <v>5.898986682934228</v>
+        <v>5.898986682934227</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09628378699022143</v>
+        <v>0.09628378699022141</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,28 +34281,28 @@
         <v>1.226960607984679</v>
       </c>
       <c r="H43" t="n">
-        <v>10.90879522371834</v>
+        <v>10.90879522371833</v>
       </c>
       <c r="I43" t="n">
         <v>36.8980517383029</v>
       </c>
       <c r="J43" t="n">
-        <v>86.74611498451681</v>
+        <v>86.74611498451678</v>
       </c>
       <c r="K43" t="n">
         <v>142.550514273129</v>
       </c>
       <c r="L43" t="n">
-        <v>182.4155798452859</v>
+        <v>182.4155798452858</v>
       </c>
       <c r="M43" t="n">
-        <v>192.3316523952711</v>
+        <v>192.331652395271</v>
       </c>
       <c r="N43" t="n">
-        <v>187.758435583692</v>
+        <v>187.7584355836919</v>
       </c>
       <c r="O43" t="n">
-        <v>173.4253048449618</v>
+        <v>173.4253048449617</v>
       </c>
       <c r="P43" t="n">
         <v>148.3953084420742</v>
@@ -34311,16 +34311,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R43" t="n">
-        <v>55.16861060992928</v>
+        <v>55.16861060992927</v>
       </c>
       <c r="S43" t="n">
         <v>21.38257714096935</v>
       </c>
       <c r="T43" t="n">
-        <v>5.242468052298173</v>
+        <v>5.242468052298172</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06692512407189166</v>
+        <v>0.06692512407189165</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>2.735298203273289</v>
       </c>
       <c r="H44" t="n">
-        <v>28.01287272427258</v>
+        <v>28.01287272427257</v>
       </c>
       <c r="I44" t="n">
         <v>105.4525839816936</v>
@@ -34369,13 +34369,13 @@
         <v>232.1550158800665</v>
       </c>
       <c r="K44" t="n">
-        <v>347.9401888246249</v>
+        <v>347.9401888246248</v>
       </c>
       <c r="L44" t="n">
-        <v>431.6505712130499</v>
+        <v>431.6505712130498</v>
       </c>
       <c r="M44" t="n">
-        <v>480.2944306355113</v>
+        <v>480.2944306355112</v>
       </c>
       <c r="N44" t="n">
         <v>488.0660966555615</v>
@@ -34384,22 +34384,22 @@
         <v>460.8669751467627</v>
       </c>
       <c r="P44" t="n">
-        <v>393.3393007534534</v>
+        <v>393.3393007534533</v>
       </c>
       <c r="Q44" t="n">
-        <v>295.3814338487286</v>
+        <v>295.3814338487285</v>
       </c>
       <c r="R44" t="n">
         <v>171.8211757613659</v>
       </c>
       <c r="S44" t="n">
-        <v>62.33060780709014</v>
+        <v>62.33060780709013</v>
       </c>
       <c r="T44" t="n">
         <v>11.97376788482883</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2188238562618631</v>
+        <v>0.218823856261863</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34448,7 +34448,7 @@
         <v>138.2699370370906</v>
       </c>
       <c r="K45" t="n">
-        <v>236.3253457079321</v>
+        <v>236.325345707932</v>
       </c>
       <c r="L45" t="n">
         <v>317.768591663394</v>
@@ -34457,28 +34457,28 @@
         <v>370.8209582950059</v>
       </c>
       <c r="N45" t="n">
-        <v>380.6354856488759</v>
+        <v>380.6354856488758</v>
       </c>
       <c r="O45" t="n">
         <v>348.2071061905693</v>
       </c>
       <c r="P45" t="n">
-        <v>279.466901198684</v>
+        <v>279.4669011986839</v>
       </c>
       <c r="Q45" t="n">
         <v>186.8162224375602</v>
       </c>
       <c r="R45" t="n">
-        <v>90.8662192422383</v>
+        <v>90.86621924223829</v>
       </c>
       <c r="S45" t="n">
         <v>27.18412252690582</v>
       </c>
       <c r="T45" t="n">
-        <v>5.898986682934228</v>
+        <v>5.898986682934227</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09628378699022143</v>
+        <v>0.09628378699022141</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,28 +34518,28 @@
         <v>1.226960607984679</v>
       </c>
       <c r="H46" t="n">
-        <v>10.90879522371834</v>
+        <v>10.90879522371833</v>
       </c>
       <c r="I46" t="n">
         <v>36.8980517383029</v>
       </c>
       <c r="J46" t="n">
-        <v>86.74611498451681</v>
+        <v>86.74611498451678</v>
       </c>
       <c r="K46" t="n">
         <v>142.550514273129</v>
       </c>
       <c r="L46" t="n">
-        <v>182.4155798452859</v>
+        <v>182.4155798452858</v>
       </c>
       <c r="M46" t="n">
-        <v>192.3316523952711</v>
+        <v>192.331652395271</v>
       </c>
       <c r="N46" t="n">
-        <v>187.758435583692</v>
+        <v>187.7584355836919</v>
       </c>
       <c r="O46" t="n">
-        <v>173.4253048449618</v>
+        <v>173.4253048449617</v>
       </c>
       <c r="P46" t="n">
         <v>148.3953084420742</v>
@@ -34548,16 +34548,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R46" t="n">
-        <v>55.16861060992928</v>
+        <v>55.16861060992927</v>
       </c>
       <c r="S46" t="n">
         <v>21.38257714096935</v>
       </c>
       <c r="T46" t="n">
-        <v>5.242468052298173</v>
+        <v>5.242468052298172</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06692512407189166</v>
+        <v>0.06692512407189165</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>220.205726525454</v>
+        <v>220.2057265254539</v>
       </c>
       <c r="K11" t="n">
-        <v>451.9957503508091</v>
+        <v>374.6541645896677</v>
       </c>
       <c r="L11" t="n">
-        <v>380.8384130360861</v>
+        <v>195.8841562430625</v>
       </c>
       <c r="M11" t="n">
-        <v>249.9481974082385</v>
+        <v>652.505385926381</v>
       </c>
       <c r="N11" t="n">
-        <v>258.6530330589706</v>
+        <v>652.505385926381</v>
       </c>
       <c r="O11" t="n">
-        <v>230.768763725076</v>
+        <v>230.7687637250758</v>
       </c>
       <c r="P11" t="n">
-        <v>483.9050131696665</v>
+        <v>162.1063049981837</v>
       </c>
       <c r="Q11" t="n">
-        <v>285.3907346341838</v>
+        <v>73.07574397427899</v>
       </c>
       <c r="R11" t="n">
-        <v>21.95205782021623</v>
+        <v>21.95205782021614</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>11.43231037042392</v>
+        <v>11.43231037042389</v>
       </c>
       <c r="K12" t="n">
-        <v>223.8499446982342</v>
+        <v>98.48390673357301</v>
       </c>
       <c r="L12" t="n">
-        <v>550.0545571869791</v>
+        <v>550.0545571869789</v>
       </c>
       <c r="M12" t="n">
-        <v>228.6869243729876</v>
+        <v>652.505385926381</v>
       </c>
       <c r="N12" t="n">
-        <v>249.2937735655426</v>
+        <v>249.2937735655425</v>
       </c>
       <c r="O12" t="n">
-        <v>599.4731810228544</v>
+        <v>599.4731810228543</v>
       </c>
       <c r="P12" t="n">
-        <v>463.9552624242909</v>
+        <v>375.580126571408</v>
       </c>
       <c r="Q12" t="n">
-        <v>256.9117360873878</v>
+        <v>46.83444835153867</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>57.64910510446283</v>
+        <v>57.64910510446281</v>
       </c>
       <c r="K13" t="n">
         <v>184.543192683865</v>
@@ -35574,10 +35574,10 @@
         <v>274.2677753422208</v>
       </c>
       <c r="M13" t="n">
-        <v>296.1776995937305</v>
+        <v>296.1776995937304</v>
       </c>
       <c r="N13" t="n">
-        <v>296.1527781995394</v>
+        <v>296.1527781995393</v>
       </c>
       <c r="O13" t="n">
         <v>262.2726029956202</v>
@@ -35586,7 +35586,7 @@
         <v>209.9360379435865</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.84134662262332</v>
+        <v>80.84134662262329</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>167.16290298421</v>
+        <v>220.2057265254539</v>
       </c>
       <c r="K14" t="n">
-        <v>127.8503377796443</v>
+        <v>451.995750350809</v>
       </c>
       <c r="L14" t="n">
-        <v>195.8841562430627</v>
+        <v>195.8841562430625</v>
       </c>
       <c r="M14" t="n">
-        <v>652.505385926381</v>
+        <v>249.9481974082384</v>
       </c>
       <c r="N14" t="n">
-        <v>652.505385926381</v>
+        <v>258.6530330589704</v>
       </c>
       <c r="O14" t="n">
-        <v>230.768763725076</v>
+        <v>415.7230205181</v>
       </c>
       <c r="P14" t="n">
-        <v>483.9050131696665</v>
+        <v>483.9050131696663</v>
       </c>
       <c r="Q14" t="n">
-        <v>73.07574397427911</v>
+        <v>285.3907346341837</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>21.95205782021614</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>11.43231037042392</v>
+        <v>137.5233457108327</v>
       </c>
       <c r="K15" t="n">
-        <v>362.9491437461517</v>
+        <v>362.9491437461516</v>
       </c>
       <c r="L15" t="n">
-        <v>550.0545571869791</v>
+        <v>179.2142118835197</v>
       </c>
       <c r="M15" t="n">
-        <v>228.6869243729876</v>
+        <v>643.450510843949</v>
       </c>
       <c r="N15" t="n">
-        <v>249.2937735655426</v>
+        <v>652.505385926381</v>
       </c>
       <c r="O15" t="n">
-        <v>599.4731810228544</v>
+        <v>205.6108617461248</v>
       </c>
       <c r="P15" t="n">
-        <v>463.9552624242909</v>
+        <v>145.4924937843536</v>
       </c>
       <c r="Q15" t="n">
-        <v>117.8125370394704</v>
+        <v>256.9117360873878</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>57.64910510446278</v>
+        <v>57.64910510446281</v>
       </c>
       <c r="K16" t="n">
-        <v>184.5431926838649</v>
+        <v>184.543192683865</v>
       </c>
       <c r="L16" t="n">
-        <v>274.2677753422207</v>
+        <v>274.2677753422208</v>
       </c>
       <c r="M16" t="n">
         <v>296.1776995937304</v>
@@ -35820,10 +35820,10 @@
         <v>262.2726029956202</v>
       </c>
       <c r="P16" t="n">
-        <v>209.9360379435864</v>
+        <v>209.9360379435865</v>
       </c>
       <c r="Q16" t="n">
-        <v>80.84134662262326</v>
+        <v>80.84134662262329</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>51.10911135338023</v>
+        <v>220.2057265254539</v>
       </c>
       <c r="K17" t="n">
-        <v>451.9957503508091</v>
+        <v>451.995750350809</v>
       </c>
       <c r="L17" t="n">
-        <v>195.8841562430627</v>
+        <v>380.8384130360866</v>
       </c>
       <c r="M17" t="n">
-        <v>652.5053859263809</v>
+        <v>249.9481974082384</v>
       </c>
       <c r="N17" t="n">
-        <v>258.6530330589706</v>
+        <v>258.6530330589704</v>
       </c>
       <c r="O17" t="n">
-        <v>230.768763725076</v>
+        <v>230.7687637250758</v>
       </c>
       <c r="P17" t="n">
-        <v>483.9050131696665</v>
+        <v>483.9050131696663</v>
       </c>
       <c r="Q17" t="n">
-        <v>258.8364759013543</v>
+        <v>285.3907346341837</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>21.95205782021614</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>137.5233457108328</v>
+        <v>137.5233457108327</v>
       </c>
       <c r="K18" t="n">
-        <v>362.9491437461517</v>
+        <v>98.48390673357301</v>
       </c>
       <c r="L18" t="n">
-        <v>550.0545571869791</v>
+        <v>179.2142118835197</v>
       </c>
       <c r="M18" t="n">
-        <v>357.359009261391</v>
+        <v>228.6869243729875</v>
       </c>
       <c r="N18" t="n">
-        <v>249.2937735655426</v>
+        <v>652.505385926381</v>
       </c>
       <c r="O18" t="n">
-        <v>205.6108617461249</v>
+        <v>566.3769165897279</v>
       </c>
       <c r="P18" t="n">
-        <v>463.9552624242909</v>
+        <v>463.9552624242908</v>
       </c>
       <c r="Q18" t="n">
         <v>256.9117360873878</v>
@@ -36042,16 +36042,16 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>120.2810224472462</v>
+        <v>120.2810224472461</v>
       </c>
       <c r="L19" t="n">
-        <v>210.005605105602</v>
+        <v>210.0056051056019</v>
       </c>
       <c r="M19" t="n">
-        <v>231.9155293571117</v>
+        <v>231.9155293571116</v>
       </c>
       <c r="N19" t="n">
-        <v>231.8906079629206</v>
+        <v>231.8906079629205</v>
       </c>
       <c r="O19" t="n">
         <v>198.0104327590014</v>
@@ -36060,7 +36060,7 @@
         <v>145.6738677069677</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.57917638600452</v>
+        <v>16.57917638600448</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>51.10911135338023</v>
+        <v>220.2057265254539</v>
       </c>
       <c r="K20" t="n">
-        <v>451.9957503508091</v>
+        <v>451.995750350809</v>
       </c>
       <c r="L20" t="n">
-        <v>613.5453707935131</v>
+        <v>195.8841562430625</v>
       </c>
       <c r="M20" t="n">
-        <v>249.9481974082385</v>
+        <v>249.9481974082384</v>
       </c>
       <c r="N20" t="n">
-        <v>258.6530330589706</v>
+        <v>258.6530330589704</v>
       </c>
       <c r="O20" t="n">
-        <v>611.5689449878214</v>
+        <v>415.7230205181</v>
       </c>
       <c r="P20" t="n">
-        <v>162.1063049981838</v>
+        <v>483.9050131696663</v>
       </c>
       <c r="Q20" t="n">
-        <v>184.7309767777828</v>
+        <v>285.3907346341837</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>21.95205782021614</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>137.5233457108328</v>
+        <v>137.5233457108327</v>
       </c>
       <c r="K21" t="n">
-        <v>98.48390673357309</v>
+        <v>362.9491437461516</v>
       </c>
       <c r="L21" t="n">
-        <v>550.0545571869791</v>
+        <v>550.0545571869789</v>
       </c>
       <c r="M21" t="n">
-        <v>228.6869243729876</v>
+        <v>228.6869243729875</v>
       </c>
       <c r="N21" t="n">
-        <v>249.2937735655426</v>
+        <v>249.2937735655425</v>
       </c>
       <c r="O21" t="n">
-        <v>599.4731810228544</v>
+        <v>599.4731810228543</v>
       </c>
       <c r="P21" t="n">
-        <v>463.9552624242909</v>
+        <v>198.765028035965</v>
       </c>
       <c r="Q21" t="n">
-        <v>256.1867387116405</v>
+        <v>256.9117360873878</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,16 +36279,16 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>120.2810224472462</v>
+        <v>120.2810224472461</v>
       </c>
       <c r="L22" t="n">
-        <v>210.005605105602</v>
+        <v>210.0056051056019</v>
       </c>
       <c r="M22" t="n">
-        <v>231.9155293571117</v>
+        <v>231.9155293571116</v>
       </c>
       <c r="N22" t="n">
-        <v>231.8906079629206</v>
+        <v>231.8906079629205</v>
       </c>
       <c r="O22" t="n">
         <v>198.0104327590014</v>
@@ -36297,7 +36297,7 @@
         <v>145.6738677069677</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.57917638600452</v>
+        <v>16.57917638600448</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>51.10911135338023</v>
+        <v>220.2057265254539</v>
       </c>
       <c r="K23" t="n">
-        <v>127.8503377796443</v>
+        <v>451.995750350809</v>
       </c>
       <c r="L23" t="n">
-        <v>613.5453707935131</v>
+        <v>195.8841562430625</v>
       </c>
       <c r="M23" t="n">
-        <v>678.3794966932129</v>
+        <v>249.9481974082384</v>
       </c>
       <c r="N23" t="n">
-        <v>678.3794966932129</v>
+        <v>258.6530330589704</v>
       </c>
       <c r="O23" t="n">
-        <v>279.7107940735434</v>
+        <v>540.1261027888022</v>
       </c>
       <c r="P23" t="n">
-        <v>162.1063049981838</v>
+        <v>483.9050131696663</v>
       </c>
       <c r="Q23" t="n">
-        <v>73.07574397427911</v>
+        <v>285.3907346341837</v>
       </c>
       <c r="R23" t="n">
-        <v>21.95205782021623</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>11.43231037042392</v>
+        <v>137.5233457108327</v>
       </c>
       <c r="K24" t="n">
-        <v>223.8499446982341</v>
+        <v>362.9491437461516</v>
       </c>
       <c r="L24" t="n">
-        <v>550.0545571869791</v>
+        <v>550.0545571869789</v>
       </c>
       <c r="M24" t="n">
-        <v>228.6869243729876</v>
+        <v>678.3794966932129</v>
       </c>
       <c r="N24" t="n">
-        <v>249.2937735655426</v>
+        <v>456.8133425095073</v>
       </c>
       <c r="O24" t="n">
-        <v>599.4731810228544</v>
+        <v>205.6108617461248</v>
       </c>
       <c r="P24" t="n">
-        <v>463.9552624242909</v>
+        <v>145.4924937843536</v>
       </c>
       <c r="Q24" t="n">
-        <v>256.9117360873878</v>
+        <v>46.83444835153867</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,16 +36516,16 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>120.2810224472462</v>
+        <v>120.2810224472461</v>
       </c>
       <c r="L25" t="n">
-        <v>210.005605105602</v>
+        <v>210.0056051056019</v>
       </c>
       <c r="M25" t="n">
-        <v>231.9155293571117</v>
+        <v>231.9155293571116</v>
       </c>
       <c r="N25" t="n">
-        <v>231.8906079629206</v>
+        <v>231.8906079629205</v>
       </c>
       <c r="O25" t="n">
         <v>198.0104327590014</v>
@@ -36534,7 +36534,7 @@
         <v>145.6738677069677</v>
       </c>
       <c r="Q25" t="n">
-        <v>16.57917638600452</v>
+        <v>16.57917638600448</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>220.205726525454</v>
+        <v>214.8996732809791</v>
       </c>
       <c r="K26" t="n">
-        <v>377.9763448762462</v>
+        <v>451.995750350809</v>
       </c>
       <c r="L26" t="n">
-        <v>613.5453707935131</v>
+        <v>613.545370793513</v>
       </c>
       <c r="M26" t="n">
-        <v>699.4617309010711</v>
+        <v>249.9481974082384</v>
       </c>
       <c r="N26" t="n">
-        <v>695.9999574709548</v>
+        <v>695.9999574709545</v>
       </c>
       <c r="O26" t="n">
-        <v>230.768763725076</v>
+        <v>611.5689449878212</v>
       </c>
       <c r="P26" t="n">
-        <v>483.9050131696665</v>
+        <v>483.9050131696663</v>
       </c>
       <c r="Q26" t="n">
-        <v>285.3907346341838</v>
+        <v>285.3907346341837</v>
       </c>
       <c r="R26" t="n">
-        <v>21.95205782021623</v>
+        <v>21.95205782021614</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>137.5233457108328</v>
+        <v>137.5233457108327</v>
       </c>
       <c r="K27" t="n">
-        <v>362.9491437461517</v>
+        <v>362.9491437461516</v>
       </c>
       <c r="L27" t="n">
-        <v>550.0545571869791</v>
+        <v>179.2142118835197</v>
       </c>
       <c r="M27" t="n">
-        <v>228.6869243729876</v>
+        <v>228.6869243729875</v>
       </c>
       <c r="N27" t="n">
-        <v>249.2937735655426</v>
+        <v>354.943884480676</v>
       </c>
       <c r="O27" t="n">
-        <v>334.2829466345285</v>
+        <v>599.4731810228543</v>
       </c>
       <c r="P27" t="n">
-        <v>463.9552624242909</v>
+        <v>463.9552624242908</v>
       </c>
       <c r="Q27" t="n">
         <v>256.9117360873878</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>73.75126804819544</v>
+        <v>73.75126804819539</v>
       </c>
       <c r="K28" t="n">
-        <v>200.6453556275976</v>
+        <v>200.6453556275975</v>
       </c>
       <c r="L28" t="n">
         <v>290.3699382859534</v>
       </c>
       <c r="M28" t="n">
-        <v>312.2798625374631</v>
+        <v>312.279862537463</v>
       </c>
       <c r="N28" t="n">
-        <v>312.254941143272</v>
+        <v>312.2549411432719</v>
       </c>
       <c r="O28" t="n">
-        <v>278.3747659393529</v>
+        <v>278.3747659393528</v>
       </c>
       <c r="P28" t="n">
         <v>226.0382008873191</v>
       </c>
       <c r="Q28" t="n">
-        <v>96.94350956635593</v>
+        <v>96.94350956635587</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>51.10911135338023</v>
+        <v>220.205726525454</v>
       </c>
       <c r="K29" t="n">
-        <v>400.5398272656934</v>
+        <v>399.9284026964621</v>
       </c>
       <c r="L29" t="n">
-        <v>613.5453707935131</v>
+        <v>613.545370793513</v>
       </c>
       <c r="M29" t="n">
-        <v>699.4617309010711</v>
+        <v>699.461730901071</v>
       </c>
       <c r="N29" t="n">
         <v>695.9999574709548</v>
       </c>
       <c r="O29" t="n">
-        <v>611.5689449878214</v>
+        <v>230.768763725076</v>
       </c>
       <c r="P29" t="n">
-        <v>483.9050131696665</v>
+        <v>483.9050131696664</v>
       </c>
       <c r="Q29" t="n">
-        <v>73.07574397427911</v>
+        <v>285.3907346341837</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>82.41039905835576</v>
+        <v>137.5233457108328</v>
       </c>
       <c r="K30" t="n">
         <v>362.9491437461517</v>
       </c>
       <c r="L30" t="n">
-        <v>550.0545571869791</v>
+        <v>550.054557186979</v>
       </c>
       <c r="M30" t="n">
         <v>228.6869243729876</v>
       </c>
       <c r="N30" t="n">
-        <v>249.2937735655426</v>
+        <v>249.2937735655425</v>
       </c>
       <c r="O30" t="n">
-        <v>599.4731810228544</v>
+        <v>334.2829466345285</v>
       </c>
       <c r="P30" t="n">
-        <v>463.9552624242909</v>
+        <v>463.9552624242908</v>
       </c>
       <c r="Q30" t="n">
-        <v>46.83444835153873</v>
+        <v>256.9117360873878</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>73.7512680481955</v>
+        <v>73.7512680481954</v>
       </c>
       <c r="K31" t="n">
-        <v>200.6453556275977</v>
+        <v>200.6453556275976</v>
       </c>
       <c r="L31" t="n">
-        <v>290.3699382859535</v>
+        <v>290.3699382859534</v>
       </c>
       <c r="M31" t="n">
-        <v>312.2798625374631</v>
+        <v>312.279862537463</v>
       </c>
       <c r="N31" t="n">
-        <v>312.254941143272</v>
+        <v>312.2549411432719</v>
       </c>
       <c r="O31" t="n">
-        <v>278.3747659393529</v>
+        <v>278.3747659393528</v>
       </c>
       <c r="P31" t="n">
         <v>226.0382008873191</v>
       </c>
       <c r="Q31" t="n">
-        <v>96.94350956635598</v>
+        <v>96.9435095663559</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>51.10911135338023</v>
+        <v>220.205726525454</v>
       </c>
       <c r="K32" t="n">
-        <v>400.5398272656934</v>
+        <v>451.995750350809</v>
       </c>
       <c r="L32" t="n">
-        <v>613.5453707935131</v>
+        <v>613.545370793513</v>
       </c>
       <c r="M32" t="n">
-        <v>699.4617309010711</v>
+        <v>266.5942019839783</v>
       </c>
       <c r="N32" t="n">
         <v>695.9999574709548</v>
       </c>
       <c r="O32" t="n">
-        <v>611.5689449878214</v>
+        <v>611.5689449878213</v>
       </c>
       <c r="P32" t="n">
-        <v>483.9050131696665</v>
+        <v>483.9050131696664</v>
       </c>
       <c r="Q32" t="n">
-        <v>73.07574397427911</v>
+        <v>285.3907346341837</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37151,19 +37151,19 @@
         <v>362.9491437461517</v>
       </c>
       <c r="L33" t="n">
-        <v>550.0545571869791</v>
+        <v>550.054557186979</v>
       </c>
       <c r="M33" t="n">
         <v>357.3590092613912</v>
       </c>
       <c r="N33" t="n">
-        <v>249.2937735655426</v>
+        <v>249.2937735655425</v>
       </c>
       <c r="O33" t="n">
-        <v>205.6108617461249</v>
+        <v>205.6108617461248</v>
       </c>
       <c r="P33" t="n">
-        <v>463.9552624242909</v>
+        <v>463.9552624242908</v>
       </c>
       <c r="Q33" t="n">
         <v>256.9117360873878</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.75126804819543</v>
+        <v>73.7512680481954</v>
       </c>
       <c r="K34" t="n">
         <v>200.6453556275976</v>
@@ -37239,13 +37239,13 @@
         <v>312.2549411432719</v>
       </c>
       <c r="O34" t="n">
-        <v>278.3747659393529</v>
+        <v>278.3747659393528</v>
       </c>
       <c r="P34" t="n">
         <v>226.0382008873191</v>
       </c>
       <c r="Q34" t="n">
-        <v>96.94350956635591</v>
+        <v>96.9435095663559</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>220.205726525454</v>
+        <v>204.9994121588126</v>
       </c>
       <c r="K35" t="n">
-        <v>451.9957503508091</v>
+        <v>451.995750350809</v>
       </c>
       <c r="L35" t="n">
-        <v>613.5453707935131</v>
+        <v>195.8841562430626</v>
       </c>
       <c r="M35" t="n">
-        <v>478.9091926438824</v>
+        <v>699.461730901071</v>
       </c>
       <c r="N35" t="n">
         <v>695.9999574709548</v>
       </c>
       <c r="O35" t="n">
-        <v>611.5689449878214</v>
+        <v>611.5689449878213</v>
       </c>
       <c r="P35" t="n">
-        <v>483.9050131696665</v>
+        <v>483.9050131696664</v>
       </c>
       <c r="Q35" t="n">
-        <v>73.07574397427911</v>
+        <v>285.3907346341837</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>28.29631929499078</v>
+        <v>137.5233457108328</v>
       </c>
       <c r="K36" t="n">
-        <v>98.48390673357309</v>
+        <v>362.9491437461517</v>
       </c>
       <c r="L36" t="n">
-        <v>179.2142118835199</v>
+        <v>550.054557186979</v>
       </c>
       <c r="M36" t="n">
-        <v>228.6869243729876</v>
+        <v>675.8217779013283</v>
       </c>
       <c r="N36" t="n">
-        <v>728.6361479090961</v>
+        <v>249.2937735655425</v>
       </c>
       <c r="O36" t="n">
-        <v>599.4731810228544</v>
+        <v>205.6108617461248</v>
       </c>
       <c r="P36" t="n">
-        <v>463.9552624242909</v>
+        <v>145.4924937843537</v>
       </c>
       <c r="Q36" t="n">
         <v>256.9117360873878</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>73.75126804819544</v>
+        <v>73.75126804819543</v>
       </c>
       <c r="K37" t="n">
         <v>200.6453556275976</v>
@@ -37470,16 +37470,16 @@
         <v>290.3699382859534</v>
       </c>
       <c r="M37" t="n">
-        <v>312.2798625374631</v>
+        <v>312.279862537463</v>
       </c>
       <c r="N37" t="n">
-        <v>312.254941143272</v>
+        <v>312.2549411432719</v>
       </c>
       <c r="O37" t="n">
         <v>278.3747659393529</v>
       </c>
       <c r="P37" t="n">
-        <v>226.0382008873189</v>
+        <v>226.0382008873191</v>
       </c>
       <c r="Q37" t="n">
         <v>96.94350956635593</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>51.10911135338023</v>
+        <v>220.205726525454</v>
       </c>
       <c r="K38" t="n">
-        <v>451.9957503508091</v>
+        <v>451.995750350809</v>
       </c>
       <c r="L38" t="n">
-        <v>613.5453707935131</v>
+        <v>195.8841562430626</v>
       </c>
       <c r="M38" t="n">
-        <v>699.4617309010711</v>
+        <v>699.461730901071</v>
       </c>
       <c r="N38" t="n">
         <v>695.9999574709548</v>
       </c>
       <c r="O38" t="n">
-        <v>611.5689449878214</v>
+        <v>574.4105728009648</v>
       </c>
       <c r="P38" t="n">
-        <v>432.4490900845504</v>
+        <v>483.9050131696664</v>
       </c>
       <c r="Q38" t="n">
-        <v>73.07574397427911</v>
+        <v>285.3907346341837</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>21.9520578202162</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>137.5233457108328</v>
       </c>
       <c r="K39" t="n">
-        <v>362.9491437461517</v>
+        <v>307.836197093675</v>
       </c>
       <c r="L39" t="n">
-        <v>550.0545571869791</v>
+        <v>550.054557186979</v>
       </c>
       <c r="M39" t="n">
-        <v>281.9594586245987</v>
+        <v>228.6869243729876</v>
       </c>
       <c r="N39" t="n">
-        <v>249.2937735655426</v>
+        <v>249.2937735655425</v>
       </c>
       <c r="O39" t="n">
-        <v>599.4731810228544</v>
+        <v>599.4731810228543</v>
       </c>
       <c r="P39" t="n">
-        <v>145.4924937843537</v>
+        <v>463.9552624242908</v>
       </c>
       <c r="Q39" t="n">
-        <v>256.9117360873878</v>
+        <v>46.8344483515387</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.75126804819544</v>
+        <v>73.75126804819543</v>
       </c>
       <c r="K40" t="n">
-        <v>200.6453556275976</v>
+        <v>200.6453556275972</v>
       </c>
       <c r="L40" t="n">
         <v>290.3699382859534</v>
       </c>
       <c r="M40" t="n">
-        <v>312.2798625374631</v>
+        <v>312.279862537463</v>
       </c>
       <c r="N40" t="n">
-        <v>312.254941143272</v>
+        <v>312.2549411432719</v>
       </c>
       <c r="O40" t="n">
         <v>278.3747659393529</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>109.1369057798438</v>
+        <v>51.1091113533802</v>
       </c>
       <c r="K41" t="n">
-        <v>451.9957503508091</v>
+        <v>451.995750350809</v>
       </c>
       <c r="L41" t="n">
-        <v>613.5453707935131</v>
+        <v>613.545370793513</v>
       </c>
       <c r="M41" t="n">
-        <v>699.4617309010711</v>
+        <v>699.461730901071</v>
       </c>
       <c r="N41" t="n">
         <v>695.9999574709548</v>
       </c>
       <c r="O41" t="n">
-        <v>611.5689449878214</v>
+        <v>611.5689449878213</v>
       </c>
       <c r="P41" t="n">
-        <v>162.1063049981838</v>
+        <v>432.4490900845519</v>
       </c>
       <c r="Q41" t="n">
-        <v>285.3907346341838</v>
+        <v>73.07574397427905</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37862,19 +37862,19 @@
         <v>362.9491437461517</v>
       </c>
       <c r="L42" t="n">
-        <v>550.0545571869791</v>
+        <v>179.2142118835198</v>
       </c>
       <c r="M42" t="n">
         <v>228.6869243729876</v>
       </c>
       <c r="N42" t="n">
-        <v>249.2937735655426</v>
+        <v>354.9438844806759</v>
       </c>
       <c r="O42" t="n">
-        <v>334.2829466345285</v>
+        <v>599.4731810228543</v>
       </c>
       <c r="P42" t="n">
-        <v>463.9552624242909</v>
+        <v>463.9552624242908</v>
       </c>
       <c r="Q42" t="n">
         <v>256.9117360873878</v>
@@ -37950,13 +37950,13 @@
         <v>312.2549411432719</v>
       </c>
       <c r="O43" t="n">
-        <v>278.3747659393529</v>
+        <v>278.3747659393522</v>
       </c>
       <c r="P43" t="n">
         <v>226.0382008873191</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.94350956635591</v>
+        <v>96.94350956635593</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>51.10911135338023</v>
+        <v>220.205726525454</v>
       </c>
       <c r="K44" t="n">
-        <v>400.5398272656943</v>
+        <v>451.995750350809</v>
       </c>
       <c r="L44" t="n">
-        <v>613.5453707935131</v>
+        <v>613.545370793513</v>
       </c>
       <c r="M44" t="n">
-        <v>699.4617309010711</v>
+        <v>266.5942019839792</v>
       </c>
       <c r="N44" t="n">
         <v>695.9999574709548</v>
       </c>
       <c r="O44" t="n">
-        <v>611.5689449878214</v>
+        <v>611.5689449878213</v>
       </c>
       <c r="P44" t="n">
-        <v>483.9050131696665</v>
+        <v>483.9050131696664</v>
       </c>
       <c r="Q44" t="n">
-        <v>73.07574397427911</v>
+        <v>285.3907346341837</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>11.43231037042392</v>
       </c>
       <c r="K45" t="n">
-        <v>98.48390673357309</v>
+        <v>98.48390673357304</v>
       </c>
       <c r="L45" t="n">
-        <v>179.2142118835199</v>
+        <v>258.9132134338737</v>
       </c>
       <c r="M45" t="n">
-        <v>694.3919881229875</v>
+        <v>694.3919881229874</v>
       </c>
       <c r="N45" t="n">
-        <v>279.7950930836631</v>
+        <v>728.6361479090961</v>
       </c>
       <c r="O45" t="n">
-        <v>599.4731810228544</v>
+        <v>599.4731810228543</v>
       </c>
       <c r="P45" t="n">
-        <v>463.9552624242909</v>
+        <v>145.4924937843537</v>
       </c>
       <c r="Q45" t="n">
-        <v>256.9117360873878</v>
+        <v>46.8344483515387</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>73.75126804819443</v>
+        <v>73.75126804819543</v>
       </c>
       <c r="K46" t="n">
         <v>200.6453556275976</v>
       </c>
       <c r="L46" t="n">
-        <v>290.3699382859535</v>
+        <v>290.3699382859534</v>
       </c>
       <c r="M46" t="n">
-        <v>312.2798625374631</v>
+        <v>312.2798625374625</v>
       </c>
       <c r="N46" t="n">
-        <v>312.254941143272</v>
+        <v>312.2549411432719</v>
       </c>
       <c r="O46" t="n">
         <v>278.3747659393529</v>
@@ -38193,7 +38193,7 @@
         <v>226.0382008873191</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.94350956635597</v>
+        <v>96.94350956635593</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
